--- a/Sufficient data/forecast_summary_B08R5736B3.xlsx
+++ b/Sufficient data/forecast_summary_B08R5736B3.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>316</v>
+        <v>85</v>
       </c>
       <c r="D2" t="n">
         <v>279</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>254</v>
+        <v>54</v>
       </c>
       <c r="D3" t="n">
         <v>269</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
         <v>212</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="D5" t="n">
         <v>172</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D6" t="n">
         <v>114</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D7" t="n">
         <v>113</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D8" t="n">
         <v>102</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D9" t="n">
         <v>99</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="D10" t="n">
         <v>100</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="D11" t="n">
         <v>98</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="D12" t="n">
         <v>79</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>201</v>
+        <v>150</v>
       </c>
       <c r="D13" t="n">
         <v>79</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>240</v>
+        <v>129</v>
       </c>
       <c r="D14" t="n">
         <v>79</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>232</v>
+        <v>117</v>
       </c>
       <c r="D15" t="n">
         <v>70</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="D16" t="n">
         <v>76</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>200</v>
+        <v>111</v>
       </c>
       <c r="D17" t="n">
         <v>72</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2024-11-24</t>
+          <t>2022-12-25 to 2024-12-08</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>401</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>156</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>132</t>
         </is>
       </c>
     </row>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>106</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>15780 units</t>
+          <t>15879 units</t>
         </is>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2578</t>
+          <t>1636</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1166</t>
+          <t>586</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>804</t>
+          <t>213</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>159</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-02-23</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>35</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08R5736B3.xlsx
+++ b/Sufficient data/forecast_summary_B08R5736B3.xlsx
@@ -484,16 +484,16 @@
         <v>125</v>
       </c>
       <c r="D2" t="n">
-        <v>279</v>
+        <v>142</v>
       </c>
       <c r="E2" t="n">
-        <v>341</v>
+        <v>174</v>
       </c>
       <c r="F2" t="n">
-        <v>420</v>
+        <v>214</v>
       </c>
       <c r="G2" t="n">
-        <v>546</v>
+        <v>280</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -519,16 +519,16 @@
         <v>81</v>
       </c>
       <c r="D3" t="n">
-        <v>269</v>
+        <v>126</v>
       </c>
       <c r="E3" t="n">
-        <v>329</v>
+        <v>154</v>
       </c>
       <c r="F3" t="n">
-        <v>412</v>
+        <v>195</v>
       </c>
       <c r="G3" t="n">
-        <v>548</v>
+        <v>264</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -554,16 +554,16 @@
         <v>60</v>
       </c>
       <c r="D4" t="n">
-        <v>212</v>
+        <v>109</v>
       </c>
       <c r="E4" t="n">
-        <v>260</v>
+        <v>133</v>
       </c>
       <c r="F4" t="n">
-        <v>326</v>
+        <v>167</v>
       </c>
       <c r="G4" t="n">
-        <v>436</v>
+        <v>220</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -589,16 +589,16 @@
         <v>67</v>
       </c>
       <c r="D5" t="n">
-        <v>172</v>
+        <v>83</v>
       </c>
       <c r="E5" t="n">
-        <v>211</v>
+        <v>102</v>
       </c>
       <c r="F5" t="n">
-        <v>265</v>
+        <v>126</v>
       </c>
       <c r="G5" t="n">
-        <v>354</v>
+        <v>166</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -624,16 +624,16 @@
         <v>84</v>
       </c>
       <c r="D6" t="n">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="E6" t="n">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="F6" t="n">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="G6" t="n">
-        <v>216</v>
+        <v>173</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -659,16 +659,16 @@
         <v>92</v>
       </c>
       <c r="D7" t="n">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="E7" t="n">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="F7" t="n">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="G7" t="n">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" t="n">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="E8" t="n">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="F8" t="n">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="G8" t="n">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -729,16 +729,16 @@
         <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="E9" t="n">
+        <v>96</v>
+      </c>
+      <c r="F9" t="n">
         <v>121</v>
       </c>
-      <c r="F9" t="n">
-        <v>148</v>
-      </c>
       <c r="G9" t="n">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -761,19 +761,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10" t="n">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E10" t="n">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="F10" t="n">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="G10" t="n">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -796,19 +796,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D11" t="n">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="E11" t="n">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="F11" t="n">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="G11" t="n">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -831,19 +831,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D12" t="n">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E12" t="n">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F12" t="n">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="G12" t="n">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -869,16 +869,16 @@
         <v>108</v>
       </c>
       <c r="D13" t="n">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E13" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F13" t="n">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G13" t="n">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         <v>78</v>
       </c>
       <c r="D14" t="n">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E14" t="n">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F14" t="n">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G14" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -939,16 +939,16 @@
         <v>65</v>
       </c>
       <c r="D15" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E15" t="n">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F15" t="n">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G15" t="n">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -974,16 +974,16 @@
         <v>70</v>
       </c>
       <c r="D16" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E16" t="n">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F16" t="n">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G16" t="n">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1009,16 +1009,16 @@
         <v>77</v>
       </c>
       <c r="D17" t="n">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E17" t="n">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F17" t="n">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G17" t="n">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1493</t>
+          <t>1489</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>702</t>
+          <t>701</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>137</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08R5736B3.xlsx
+++ b/Sufficient data/forecast_summary_B08R5736B3.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,63 +425,114 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>yhat</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Amazon Mean Forecast</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Amazon P70 Forecast</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Amazon P80 Forecast</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Amazon P90 Forecast</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Diff_Mean Forecast</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Pct_Mean Forecast</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Diff_P70 Forecast</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Pct_P70 Forecast</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Diff_P80 Forecast</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Pct_P80 Forecast</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Diff_P90 Forecast</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Pct_P90 Forecast</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Product Title</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
           <t>Week</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ASIN</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Prophet Forecast</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Amazon Mean Forecast</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Amazon P70 Forecast</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Amazon P80 Forecast</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Amazon P90 Forecast</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Product Title</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>is_holiday_week</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>W01</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>B08R5736B3</t>
-        </is>
+      <c r="A2" t="n">
+        <v>237</v>
+      </c>
+      <c r="B2" t="n">
+        <v>233.8410912748166</v>
       </c>
       <c r="C2" t="n">
-        <v>125</v>
+        <v>305.5403628911782</v>
       </c>
       <c r="D2" t="n">
         <v>142</v>
@@ -495,28 +546,61 @@
       <c r="G2" t="n">
         <v>280</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" t="n">
+        <v>95</v>
+      </c>
+      <c r="I2" t="n">
+        <v>66.90140845070422</v>
+      </c>
+      <c r="J2" t="n">
+        <v>63</v>
+      </c>
+      <c r="K2" t="n">
+        <v>36.20689655172414</v>
+      </c>
+      <c r="L2" t="n">
+        <v>23</v>
+      </c>
+      <c r="M2" t="n">
+        <v>10.74766355140187</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-43</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-15.35714285714286</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I2" t="b">
+      <c r="R2" t="b">
         <v>0</v>
       </c>
+      <c r="S2" t="n">
+        <v/>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>W01</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>W02</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>B08R5736B3</t>
-        </is>
+      <c r="A3" t="n">
+        <v>126</v>
+      </c>
+      <c r="B3" t="n">
+        <v>121.5801211038637</v>
       </c>
       <c r="C3" t="n">
-        <v>81</v>
+        <v>202.074844539601</v>
       </c>
       <c r="D3" t="n">
         <v>126</v>
@@ -530,28 +614,61 @@
       <c r="G3" t="n">
         <v>264</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-28</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-18.18181818181818</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-69</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-35.38461538461539</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-138</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-52.27272727272727</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I3" t="b">
+      <c r="R3" t="b">
         <v>0</v>
       </c>
+      <c r="S3" t="n">
+        <v/>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>W02</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>W03</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>B08R5736B3</t>
-        </is>
+      <c r="A4" t="n">
+        <v>37</v>
+      </c>
+      <c r="B4" t="n">
+        <v>32.79511206458116</v>
       </c>
       <c r="C4" t="n">
-        <v>60</v>
+        <v>107.8664412842976</v>
       </c>
       <c r="D4" t="n">
         <v>109</v>
@@ -565,28 +682,61 @@
       <c r="G4" t="n">
         <v>220</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" t="n">
+        <v>-72</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-66.05504587155964</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-96</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-72.18045112781954</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-130</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-77.84431137724552</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-183</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-83.18181818181817</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I4" t="b">
+      <c r="R4" t="b">
         <v>0</v>
       </c>
+      <c r="S4" t="n">
+        <v/>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>W03</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>W04</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>B08R5736B3</t>
-        </is>
+      <c r="A5" t="n">
+        <v>14</v>
+      </c>
+      <c r="B5" t="n">
+        <v>9.871249496258782</v>
       </c>
       <c r="C5" t="n">
-        <v>67</v>
+        <v>83.00391553327275</v>
       </c>
       <c r="D5" t="n">
         <v>83</v>
@@ -600,28 +750,61 @@
       <c r="G5" t="n">
         <v>166</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" t="n">
+        <v>-69</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-83.13253012048193</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-88</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-86.27450980392157</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-112</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-88.88888888888889</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-152</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-91.56626506024097</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I5" t="b">
+      <c r="R5" t="b">
         <v>0</v>
       </c>
+      <c r="S5" t="n">
+        <v/>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>W04</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>W05</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>B08R5736B3</t>
-        </is>
+      <c r="A6" t="n">
+        <v>46</v>
+      </c>
+      <c r="B6" t="n">
+        <v>42.76191471231841</v>
       </c>
       <c r="C6" t="n">
-        <v>84</v>
+        <v>115.5308376867587</v>
       </c>
       <c r="D6" t="n">
         <v>85</v>
@@ -635,28 +818,61 @@
       <c r="G6" t="n">
         <v>173</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" t="n">
+        <v>-39</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-45.88235294117647</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-59</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-56.19047619047619</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-64.8854961832061</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-127</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-73.41040462427746</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I6" t="b">
+      <c r="R6" t="b">
         <v>0</v>
       </c>
+      <c r="S6" t="n">
+        <v/>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>W05</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>W06</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>B08R5736B3</t>
-        </is>
+      <c r="A7" t="n">
+        <v>84</v>
+      </c>
+      <c r="B7" t="n">
+        <v>80.03283391929499</v>
       </c>
       <c r="C7" t="n">
-        <v>92</v>
+        <v>152.5228677630985</v>
       </c>
       <c r="D7" t="n">
         <v>80</v>
@@ -670,28 +886,61 @@
       <c r="G7" t="n">
         <v>163</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-14</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-14.28571428571428</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-39</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-31.70731707317073</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-79</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-48.46625766871166</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I7" t="b">
+      <c r="R7" t="b">
         <v>0</v>
       </c>
+      <c r="S7" t="n">
+        <v/>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>W06</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>W07</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>B08R5736B3</t>
-        </is>
+      <c r="A8" t="n">
+        <v>86</v>
+      </c>
+      <c r="B8" t="n">
+        <v>82.35674967587515</v>
       </c>
       <c r="C8" t="n">
-        <v>92</v>
+        <v>160.345724809713</v>
       </c>
       <c r="D8" t="n">
         <v>81</v>
@@ -705,28 +954,61 @@
       <c r="G8" t="n">
         <v>168</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6.172839506172839</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-13</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-13.13131313131313</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-39</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-31.2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-82</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-48.80952380952381</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I8" t="b">
+      <c r="R8" t="b">
         <v>0</v>
       </c>
+      <c r="S8" t="n">
+        <v/>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>W07</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>W08</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>B08R5736B3</t>
-        </is>
+      <c r="A9" t="n">
+        <v>65</v>
+      </c>
+      <c r="B9" t="n">
+        <v>61.63671874049593</v>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>137.7030331170359</v>
       </c>
       <c r="D9" t="n">
         <v>78</v>
@@ -740,28 +1022,61 @@
       <c r="G9" t="n">
         <v>163</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" t="n">
+        <v>-13</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-16.66666666666666</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-31</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-32.29166666666667</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-56</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-46.28099173553719</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-98</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-60.12269938650306</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I9" t="b">
+      <c r="R9" t="b">
         <v>0</v>
       </c>
+      <c r="S9" t="n">
+        <v/>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>W08</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>W09</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>B08R5736B3</t>
-        </is>
+      <c r="A10" t="n">
+        <v>66</v>
+      </c>
+      <c r="B10" t="n">
+        <v>62.51535218652338</v>
       </c>
       <c r="C10" t="n">
-        <v>119</v>
+        <v>136.4669415899795</v>
       </c>
       <c r="D10" t="n">
         <v>77</v>
@@ -775,28 +1090,61 @@
       <c r="G10" t="n">
         <v>156</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H10" t="n">
+        <v>-11</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-14.28571428571428</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-28</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-29.78723404255319</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-51</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-43.58974358974359</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-90</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-57.69230769230769</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I10" t="b">
+      <c r="R10" t="b">
         <v>0</v>
       </c>
+      <c r="S10" t="n">
+        <v/>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>W09</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>W10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>B08R5736B3</t>
-        </is>
+      <c r="A11" t="n">
+        <v>111</v>
+      </c>
+      <c r="B11" t="n">
+        <v>108.1231030563519</v>
       </c>
       <c r="C11" t="n">
-        <v>137</v>
+        <v>175.3789859139412</v>
       </c>
       <c r="D11" t="n">
         <v>75</v>
@@ -810,28 +1158,61 @@
       <c r="G11" t="n">
         <v>156</v>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H11" t="n">
+        <v>36</v>
+      </c>
+      <c r="I11" t="n">
+        <v>48</v>
+      </c>
+      <c r="J11" t="n">
+        <v>20</v>
+      </c>
+      <c r="K11" t="n">
+        <v>21.97802197802198</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-4.310344827586207</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-45</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-28.84615384615384</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I11" t="b">
+      <c r="R11" t="b">
         <v>0</v>
       </c>
+      <c r="S11" t="n">
+        <v/>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>W11</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>B08R5736B3</t>
-        </is>
+      <c r="A12" t="n">
+        <v>176</v>
+      </c>
+      <c r="B12" t="n">
+        <v>172.4889101570793</v>
       </c>
       <c r="C12" t="n">
-        <v>134</v>
+        <v>246.8114706640922</v>
       </c>
       <c r="D12" t="n">
         <v>71</v>
@@ -845,28 +1226,61 @@
       <c r="G12" t="n">
         <v>157</v>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H12" t="n">
+        <v>105</v>
+      </c>
+      <c r="I12" t="n">
+        <v>147.887323943662</v>
+      </c>
+      <c r="J12" t="n">
+        <v>89</v>
+      </c>
+      <c r="K12" t="n">
+        <v>102.2988505747126</v>
+      </c>
+      <c r="L12" t="n">
+        <v>63</v>
+      </c>
+      <c r="M12" t="n">
+        <v>55.75221238938053</v>
+      </c>
+      <c r="N12" t="n">
+        <v>19</v>
+      </c>
+      <c r="O12" t="n">
+        <v>12.10191082802548</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I12" t="b">
+      <c r="R12" t="b">
         <v>0</v>
       </c>
+      <c r="S12" t="n">
+        <v/>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>W12</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>B08R5736B3</t>
-        </is>
+      <c r="A13" t="n">
+        <v>213</v>
+      </c>
+      <c r="B13" t="n">
+        <v>209.7085334589957</v>
       </c>
       <c r="C13" t="n">
-        <v>108</v>
+        <v>281.6065410454369</v>
       </c>
       <c r="D13" t="n">
         <v>74</v>
@@ -880,28 +1294,61 @@
       <c r="G13" t="n">
         <v>160</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H13" t="n">
+        <v>139</v>
+      </c>
+      <c r="I13" t="n">
+        <v>187.8378378378378</v>
+      </c>
+      <c r="J13" t="n">
+        <v>122</v>
+      </c>
+      <c r="K13" t="n">
+        <v>134.065934065934</v>
+      </c>
+      <c r="L13" t="n">
+        <v>96</v>
+      </c>
+      <c r="M13" t="n">
+        <v>82.05128205128204</v>
+      </c>
+      <c r="N13" t="n">
+        <v>53</v>
+      </c>
+      <c r="O13" t="n">
+        <v>33.125</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I13" t="b">
+      <c r="R13" t="b">
         <v>0</v>
       </c>
+      <c r="S13" t="n">
+        <v/>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>W13</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>B08R5736B3</t>
-        </is>
+      <c r="A14" t="n">
+        <v>207</v>
+      </c>
+      <c r="B14" t="n">
+        <v>203.583759731424</v>
       </c>
       <c r="C14" t="n">
-        <v>78</v>
+        <v>279.5283054922228</v>
       </c>
       <c r="D14" t="n">
         <v>75</v>
@@ -915,28 +1362,61 @@
       <c r="G14" t="n">
         <v>161</v>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H14" t="n">
+        <v>132</v>
+      </c>
+      <c r="I14" t="n">
+        <v>176</v>
+      </c>
+      <c r="J14" t="n">
+        <v>115</v>
+      </c>
+      <c r="K14" t="n">
+        <v>125</v>
+      </c>
+      <c r="L14" t="n">
+        <v>89</v>
+      </c>
+      <c r="M14" t="n">
+        <v>75.42372881355932</v>
+      </c>
+      <c r="N14" t="n">
+        <v>46</v>
+      </c>
+      <c r="O14" t="n">
+        <v>28.57142857142857</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I14" t="b">
+      <c r="R14" t="b">
         <v>0</v>
       </c>
+      <c r="S14" t="n">
+        <v/>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>W14</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>B08R5736B3</t>
-        </is>
+      <c r="A15" t="n">
+        <v>184</v>
+      </c>
+      <c r="B15" t="n">
+        <v>180.0552595362741</v>
       </c>
       <c r="C15" t="n">
-        <v>65</v>
+        <v>254.9970402427903</v>
       </c>
       <c r="D15" t="n">
         <v>66</v>
@@ -950,28 +1430,61 @@
       <c r="G15" t="n">
         <v>148</v>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H15" t="n">
+        <v>118</v>
+      </c>
+      <c r="I15" t="n">
+        <v>178.7878787878788</v>
+      </c>
+      <c r="J15" t="n">
+        <v>103</v>
+      </c>
+      <c r="K15" t="n">
+        <v>127.1604938271605</v>
+      </c>
+      <c r="L15" t="n">
+        <v>78</v>
+      </c>
+      <c r="M15" t="n">
+        <v>73.58490566037736</v>
+      </c>
+      <c r="N15" t="n">
+        <v>36</v>
+      </c>
+      <c r="O15" t="n">
+        <v>24.32432432432433</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I15" t="b">
+      <c r="R15" t="b">
         <v>0</v>
       </c>
+      <c r="S15" t="n">
+        <v/>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>W15</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>B08R5736B3</t>
-        </is>
+      <c r="A16" t="n">
+        <v>175</v>
+      </c>
+      <c r="B16" t="n">
+        <v>171.6963484807083</v>
       </c>
       <c r="C16" t="n">
-        <v>70</v>
+        <v>247.7423748662547</v>
       </c>
       <c r="D16" t="n">
         <v>68</v>
@@ -985,28 +1498,61 @@
       <c r="G16" t="n">
         <v>149</v>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H16" t="n">
+        <v>107</v>
+      </c>
+      <c r="I16" t="n">
+        <v>157.3529411764706</v>
+      </c>
+      <c r="J16" t="n">
+        <v>92</v>
+      </c>
+      <c r="K16" t="n">
+        <v>110.8433734939759</v>
+      </c>
+      <c r="L16" t="n">
+        <v>67</v>
+      </c>
+      <c r="M16" t="n">
+        <v>62.03703703703704</v>
+      </c>
+      <c r="N16" t="n">
+        <v>26</v>
+      </c>
+      <c r="O16" t="n">
+        <v>17.4496644295302</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I16" t="b">
+      <c r="R16" t="b">
         <v>0</v>
       </c>
+      <c r="S16" t="n">
+        <v/>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>W16</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>B08R5736B3</t>
-        </is>
+      <c r="A17" t="n">
+        <v>184</v>
+      </c>
+      <c r="B17" t="n">
+        <v>179.8672968965871</v>
       </c>
       <c r="C17" t="n">
-        <v>77</v>
+        <v>254.0371270878567</v>
       </c>
       <c r="D17" t="n">
         <v>63</v>
@@ -1020,13 +1566,50 @@
       <c r="G17" t="n">
         <v>140</v>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H17" t="n">
+        <v>121</v>
+      </c>
+      <c r="I17" t="n">
+        <v>192.0634920634921</v>
+      </c>
+      <c r="J17" t="n">
+        <v>107</v>
+      </c>
+      <c r="K17" t="n">
+        <v>138.961038961039</v>
+      </c>
+      <c r="L17" t="n">
+        <v>83</v>
+      </c>
+      <c r="M17" t="n">
+        <v>82.17821782178217</v>
+      </c>
+      <c r="N17" t="n">
+        <v>44</v>
+      </c>
+      <c r="O17" t="n">
+        <v>31.42857142857143</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I17" t="b">
+      <c r="R17" t="b">
         <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v/>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>W16</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1152,7 +1735,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1489</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1747,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>695</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1759,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>414</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1771,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>237</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1783,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2024-12-08</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1795,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1807,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-29</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08R5736B3.xlsx
+++ b/Sufficient data/forecast_summary_B08R5736B3.xlsx
@@ -526,13 +526,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>237</v>
+        <v>125</v>
       </c>
       <c r="B2" t="n">
-        <v>233.8410912748166</v>
+        <v>125.4009589385441</v>
       </c>
       <c r="C2" t="n">
-        <v>305.5403628911782</v>
+        <v>162.0038846303492</v>
       </c>
       <c r="D2" t="n">
         <v>142</v>
@@ -547,28 +547,28 @@
         <v>280</v>
       </c>
       <c r="H2" t="n">
-        <v>95</v>
+        <v>-17</v>
       </c>
       <c r="I2" t="n">
-        <v>66.90140845070422</v>
+        <v>-11.97183098591549</v>
       </c>
       <c r="J2" t="n">
-        <v>63</v>
+        <v>-49</v>
       </c>
       <c r="K2" t="n">
-        <v>36.20689655172414</v>
+        <v>-28.16091954022988</v>
       </c>
       <c r="L2" t="n">
-        <v>23</v>
+        <v>-89</v>
       </c>
       <c r="M2" t="n">
-        <v>10.74766355140187</v>
+        <v>-41.58878504672897</v>
       </c>
       <c r="N2" t="n">
-        <v>-43</v>
+        <v>-155</v>
       </c>
       <c r="O2" t="n">
-        <v>-15.35714285714286</v>
+        <v>-55.35714285714286</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -594,13 +594,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="B3" t="n">
-        <v>121.5801211038637</v>
+        <v>81.11021236368855</v>
       </c>
       <c r="C3" t="n">
-        <v>202.074844539601</v>
+        <v>140.881294508341</v>
       </c>
       <c r="D3" t="n">
         <v>126</v>
@@ -615,28 +615,28 @@
         <v>264</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-45</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-35.71428571428572</v>
       </c>
       <c r="J3" t="n">
-        <v>-28</v>
+        <v>-73</v>
       </c>
       <c r="K3" t="n">
-        <v>-18.18181818181818</v>
+        <v>-47.4025974025974</v>
       </c>
       <c r="L3" t="n">
-        <v>-69</v>
+        <v>-114</v>
       </c>
       <c r="M3" t="n">
-        <v>-35.38461538461539</v>
+        <v>-58.46153846153847</v>
       </c>
       <c r="N3" t="n">
-        <v>-138</v>
+        <v>-183</v>
       </c>
       <c r="O3" t="n">
-        <v>-52.27272727272727</v>
+        <v>-69.31818181818183</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -662,13 +662,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B4" t="n">
-        <v>32.79511206458116</v>
+        <v>60.09134321915683</v>
       </c>
       <c r="C4" t="n">
-        <v>107.8664412842976</v>
+        <v>167.2752194230464</v>
       </c>
       <c r="D4" t="n">
         <v>109</v>
@@ -683,28 +683,28 @@
         <v>220</v>
       </c>
       <c r="H4" t="n">
-        <v>-72</v>
+        <v>-49</v>
       </c>
       <c r="I4" t="n">
-        <v>-66.05504587155964</v>
+        <v>-44.95412844036697</v>
       </c>
       <c r="J4" t="n">
-        <v>-96</v>
+        <v>-73</v>
       </c>
       <c r="K4" t="n">
-        <v>-72.18045112781954</v>
+        <v>-54.88721804511278</v>
       </c>
       <c r="L4" t="n">
-        <v>-130</v>
+        <v>-107</v>
       </c>
       <c r="M4" t="n">
-        <v>-77.84431137724552</v>
+        <v>-64.07185628742515</v>
       </c>
       <c r="N4" t="n">
-        <v>-183</v>
+        <v>-160</v>
       </c>
       <c r="O4" t="n">
-        <v>-83.18181818181817</v>
+        <v>-72.72727272727273</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -730,13 +730,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="B5" t="n">
-        <v>9.871249496258782</v>
+        <v>67.37754318351061</v>
       </c>
       <c r="C5" t="n">
-        <v>83.00391553327275</v>
+        <v>283.2989137239156</v>
       </c>
       <c r="D5" t="n">
         <v>83</v>
@@ -751,28 +751,28 @@
         <v>166</v>
       </c>
       <c r="H5" t="n">
-        <v>-69</v>
+        <v>-16</v>
       </c>
       <c r="I5" t="n">
-        <v>-83.13253012048193</v>
+        <v>-19.27710843373494</v>
       </c>
       <c r="J5" t="n">
-        <v>-88</v>
+        <v>-35</v>
       </c>
       <c r="K5" t="n">
-        <v>-86.27450980392157</v>
+        <v>-34.31372549019608</v>
       </c>
       <c r="L5" t="n">
-        <v>-112</v>
+        <v>-59</v>
       </c>
       <c r="M5" t="n">
-        <v>-88.88888888888889</v>
+        <v>-46.82539682539682</v>
       </c>
       <c r="N5" t="n">
-        <v>-152</v>
+        <v>-99</v>
       </c>
       <c r="O5" t="n">
-        <v>-91.56626506024097</v>
+        <v>-59.63855421686747</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
@@ -798,13 +798,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="B6" t="n">
-        <v>42.76191471231841</v>
+        <v>84.32957118444806</v>
       </c>
       <c r="C6" t="n">
-        <v>115.5308376867587</v>
+        <v>451.5759615222095</v>
       </c>
       <c r="D6" t="n">
         <v>85</v>
@@ -819,28 +819,28 @@
         <v>173</v>
       </c>
       <c r="H6" t="n">
-        <v>-39</v>
+        <v>-1</v>
       </c>
       <c r="I6" t="n">
-        <v>-45.88235294117647</v>
+        <v>-1.176470588235294</v>
       </c>
       <c r="J6" t="n">
-        <v>-59</v>
+        <v>-21</v>
       </c>
       <c r="K6" t="n">
-        <v>-56.19047619047619</v>
+        <v>-20</v>
       </c>
       <c r="L6" t="n">
-        <v>-85</v>
+        <v>-47</v>
       </c>
       <c r="M6" t="n">
-        <v>-64.8854961832061</v>
+        <v>-35.87786259541985</v>
       </c>
       <c r="N6" t="n">
-        <v>-127</v>
+        <v>-89</v>
       </c>
       <c r="O6" t="n">
-        <v>-73.41040462427746</v>
+        <v>-51.44508670520231</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -866,13 +866,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B7" t="n">
-        <v>80.03283391929499</v>
+        <v>92.29704446834425</v>
       </c>
       <c r="C7" t="n">
-        <v>152.5228677630985</v>
+        <v>655.7250098712044</v>
       </c>
       <c r="D7" t="n">
         <v>80</v>
@@ -887,28 +887,28 @@
         <v>163</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J7" t="n">
-        <v>-14</v>
+        <v>-6</v>
       </c>
       <c r="K7" t="n">
-        <v>-14.28571428571428</v>
+        <v>-6.122448979591836</v>
       </c>
       <c r="L7" t="n">
-        <v>-39</v>
+        <v>-31</v>
       </c>
       <c r="M7" t="n">
-        <v>-31.70731707317073</v>
+        <v>-25.20325203252033</v>
       </c>
       <c r="N7" t="n">
-        <v>-79</v>
+        <v>-71</v>
       </c>
       <c r="O7" t="n">
-        <v>-48.46625766871166</v>
+        <v>-43.55828220858896</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -934,13 +934,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B8" t="n">
-        <v>82.35674967587515</v>
+        <v>92.4289823595264</v>
       </c>
       <c r="C8" t="n">
-        <v>160.345724809713</v>
+        <v>850.9143796835183</v>
       </c>
       <c r="D8" t="n">
         <v>81</v>
@@ -955,28 +955,28 @@
         <v>168</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I8" t="n">
-        <v>6.172839506172839</v>
+        <v>13.58024691358025</v>
       </c>
       <c r="J8" t="n">
-        <v>-13</v>
+        <v>-7</v>
       </c>
       <c r="K8" t="n">
-        <v>-13.13131313131313</v>
+        <v>-7.07070707070707</v>
       </c>
       <c r="L8" t="n">
-        <v>-39</v>
+        <v>-33</v>
       </c>
       <c r="M8" t="n">
-        <v>-31.2</v>
+        <v>-26.4</v>
       </c>
       <c r="N8" t="n">
-        <v>-82</v>
+        <v>-76</v>
       </c>
       <c r="O8" t="n">
-        <v>-48.80952380952381</v>
+        <v>-45.23809523809524</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -1002,13 +1002,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="B9" t="n">
-        <v>61.63671874049593</v>
+        <v>99.57449543814245</v>
       </c>
       <c r="C9" t="n">
-        <v>137.7030331170359</v>
+        <v>1168.370623246122</v>
       </c>
       <c r="D9" t="n">
         <v>78</v>
@@ -1023,28 +1023,28 @@
         <v>163</v>
       </c>
       <c r="H9" t="n">
-        <v>-13</v>
+        <v>22</v>
       </c>
       <c r="I9" t="n">
-        <v>-16.66666666666666</v>
+        <v>28.2051282051282</v>
       </c>
       <c r="J9" t="n">
-        <v>-31</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>-32.29166666666667</v>
+        <v>4.166666666666666</v>
       </c>
       <c r="L9" t="n">
-        <v>-56</v>
+        <v>-21</v>
       </c>
       <c r="M9" t="n">
-        <v>-46.28099173553719</v>
+        <v>-17.35537190082645</v>
       </c>
       <c r="N9" t="n">
-        <v>-98</v>
+        <v>-63</v>
       </c>
       <c r="O9" t="n">
-        <v>-60.12269938650306</v>
+        <v>-38.65030674846626</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -1070,13 +1070,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="B10" t="n">
-        <v>62.51535218652338</v>
+        <v>119.3844699057373</v>
       </c>
       <c r="C10" t="n">
-        <v>136.4669415899795</v>
+        <v>1737.961950816776</v>
       </c>
       <c r="D10" t="n">
         <v>77</v>
@@ -1091,28 +1091,28 @@
         <v>156</v>
       </c>
       <c r="H10" t="n">
-        <v>-11</v>
+        <v>42</v>
       </c>
       <c r="I10" t="n">
-        <v>-14.28571428571428</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="J10" t="n">
-        <v>-28</v>
+        <v>25</v>
       </c>
       <c r="K10" t="n">
-        <v>-29.78723404255319</v>
+        <v>26.59574468085106</v>
       </c>
       <c r="L10" t="n">
-        <v>-51</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
-        <v>-43.58974358974359</v>
+        <v>1.70940170940171</v>
       </c>
       <c r="N10" t="n">
-        <v>-90</v>
+        <v>-37</v>
       </c>
       <c r="O10" t="n">
-        <v>-57.69230769230769</v>
+        <v>-23.71794871794872</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
@@ -1138,13 +1138,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="B11" t="n">
-        <v>108.1231030563519</v>
+        <v>137.4805419075809</v>
       </c>
       <c r="C11" t="n">
-        <v>175.3789859139412</v>
+        <v>2414.333543455183</v>
       </c>
       <c r="D11" t="n">
         <v>75</v>
@@ -1159,28 +1159,28 @@
         <v>156</v>
       </c>
       <c r="H11" t="n">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="I11" t="n">
-        <v>48</v>
+        <v>82.66666666666667</v>
       </c>
       <c r="J11" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="K11" t="n">
-        <v>21.97802197802198</v>
+        <v>50.54945054945055</v>
       </c>
       <c r="L11" t="n">
-        <v>-5</v>
+        <v>21</v>
       </c>
       <c r="M11" t="n">
-        <v>-4.310344827586207</v>
+        <v>18.10344827586207</v>
       </c>
       <c r="N11" t="n">
-        <v>-45</v>
+        <v>-19</v>
       </c>
       <c r="O11" t="n">
-        <v>-28.84615384615384</v>
+        <v>-12.17948717948718</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
@@ -1206,13 +1206,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="B12" t="n">
-        <v>172.4889101570793</v>
+        <v>134.3278658485393</v>
       </c>
       <c r="C12" t="n">
-        <v>246.8114706640922</v>
+        <v>2827.403075201789</v>
       </c>
       <c r="D12" t="n">
         <v>71</v>
@@ -1227,28 +1227,28 @@
         <v>157</v>
       </c>
       <c r="H12" t="n">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="I12" t="n">
-        <v>147.887323943662</v>
+        <v>88.73239436619718</v>
       </c>
       <c r="J12" t="n">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="K12" t="n">
-        <v>102.2988505747126</v>
+        <v>54.02298850574713</v>
       </c>
       <c r="L12" t="n">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="M12" t="n">
-        <v>55.75221238938053</v>
+        <v>18.58407079646018</v>
       </c>
       <c r="N12" t="n">
-        <v>19</v>
+        <v>-23</v>
       </c>
       <c r="O12" t="n">
-        <v>12.10191082802548</v>
+        <v>-14.64968152866242</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
@@ -1274,13 +1274,13 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>213</v>
+        <v>108</v>
       </c>
       <c r="B13" t="n">
-        <v>209.7085334589957</v>
+        <v>108.0848328935921</v>
       </c>
       <c r="C13" t="n">
-        <v>281.6065410454369</v>
+        <v>2725.375526189523</v>
       </c>
       <c r="D13" t="n">
         <v>74</v>
@@ -1295,28 +1295,28 @@
         <v>160</v>
       </c>
       <c r="H13" t="n">
-        <v>139</v>
+        <v>34</v>
       </c>
       <c r="I13" t="n">
-        <v>187.8378378378378</v>
+        <v>45.94594594594595</v>
       </c>
       <c r="J13" t="n">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="K13" t="n">
-        <v>134.065934065934</v>
+        <v>18.68131868131868</v>
       </c>
       <c r="L13" t="n">
-        <v>96</v>
+        <v>-9</v>
       </c>
       <c r="M13" t="n">
-        <v>82.05128205128204</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="N13" t="n">
-        <v>53</v>
+        <v>-52</v>
       </c>
       <c r="O13" t="n">
-        <v>33.125</v>
+        <v>-32.5</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
@@ -1342,13 +1342,13 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>207</v>
+        <v>78</v>
       </c>
       <c r="B14" t="n">
-        <v>203.583759731424</v>
+        <v>78.14052036688467</v>
       </c>
       <c r="C14" t="n">
-        <v>279.5283054922228</v>
+        <v>2264.536063283649</v>
       </c>
       <c r="D14" t="n">
         <v>75</v>
@@ -1363,28 +1363,28 @@
         <v>161</v>
       </c>
       <c r="H14" t="n">
-        <v>132</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>176</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>115</v>
+        <v>-14</v>
       </c>
       <c r="K14" t="n">
-        <v>125</v>
+        <v>-15.21739130434783</v>
       </c>
       <c r="L14" t="n">
-        <v>89</v>
+        <v>-40</v>
       </c>
       <c r="M14" t="n">
-        <v>75.42372881355932</v>
+        <v>-33.89830508474576</v>
       </c>
       <c r="N14" t="n">
-        <v>46</v>
+        <v>-83</v>
       </c>
       <c r="O14" t="n">
-        <v>28.57142857142857</v>
+        <v>-51.5527950310559</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -1410,13 +1410,13 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>184</v>
+        <v>65</v>
       </c>
       <c r="B15" t="n">
-        <v>180.0552595362741</v>
+        <v>65.10222240540055</v>
       </c>
       <c r="C15" t="n">
-        <v>254.9970402427903</v>
+        <v>2205.483295158778</v>
       </c>
       <c r="D15" t="n">
         <v>66</v>
@@ -1431,28 +1431,28 @@
         <v>148</v>
       </c>
       <c r="H15" t="n">
-        <v>118</v>
+        <v>-1</v>
       </c>
       <c r="I15" t="n">
-        <v>178.7878787878788</v>
+        <v>-1.515151515151515</v>
       </c>
       <c r="J15" t="n">
-        <v>103</v>
+        <v>-16</v>
       </c>
       <c r="K15" t="n">
-        <v>127.1604938271605</v>
+        <v>-19.75308641975309</v>
       </c>
       <c r="L15" t="n">
-        <v>78</v>
+        <v>-41</v>
       </c>
       <c r="M15" t="n">
-        <v>73.58490566037736</v>
+        <v>-38.67924528301887</v>
       </c>
       <c r="N15" t="n">
-        <v>36</v>
+        <v>-83</v>
       </c>
       <c r="O15" t="n">
-        <v>24.32432432432433</v>
+        <v>-56.08108108108109</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
@@ -1478,13 +1478,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="B16" t="n">
-        <v>171.6963484807083</v>
+        <v>70.23429764037088</v>
       </c>
       <c r="C16" t="n">
-        <v>247.7423748662547</v>
+        <v>2776.234960491771</v>
       </c>
       <c r="D16" t="n">
         <v>68</v>
@@ -1499,28 +1499,28 @@
         <v>149</v>
       </c>
       <c r="H16" t="n">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>157.3529411764706</v>
+        <v>2.941176470588235</v>
       </c>
       <c r="J16" t="n">
-        <v>92</v>
+        <v>-13</v>
       </c>
       <c r="K16" t="n">
-        <v>110.8433734939759</v>
+        <v>-15.66265060240964</v>
       </c>
       <c r="L16" t="n">
-        <v>67</v>
+        <v>-38</v>
       </c>
       <c r="M16" t="n">
-        <v>62.03703703703704</v>
+        <v>-35.18518518518518</v>
       </c>
       <c r="N16" t="n">
-        <v>26</v>
+        <v>-79</v>
       </c>
       <c r="O16" t="n">
-        <v>17.4496644295302</v>
+        <v>-53.02013422818792</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
@@ -1546,13 +1546,13 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="B17" t="n">
-        <v>179.8672968965871</v>
+        <v>76.72699950644093</v>
       </c>
       <c r="C17" t="n">
-        <v>254.0371270878567</v>
+        <v>3501.893227750297</v>
       </c>
       <c r="D17" t="n">
         <v>63</v>
@@ -1567,28 +1567,28 @@
         <v>140</v>
       </c>
       <c r="H17" t="n">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="I17" t="n">
-        <v>192.0634920634921</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="J17" t="n">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>138.961038961039</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>83</v>
+        <v>-24</v>
       </c>
       <c r="M17" t="n">
-        <v>82.17821782178217</v>
+        <v>-23.76237623762376</v>
       </c>
       <c r="N17" t="n">
-        <v>44</v>
+        <v>-63</v>
       </c>
       <c r="O17" t="n">
-        <v>31.42857142857143</v>
+        <v>-45</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>1489</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>701</t>
         </is>
       </c>
     </row>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>333</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>137</t>
         </is>
       </c>
     </row>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-08</t>
+          <t>2025-02-09</t>
         </is>
       </c>
     </row>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-12-29</t>
+          <t>2024-12-22</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08R5736B3.xlsx
+++ b/Sufficient data/forecast_summary_B08R5736B3.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,19 +425,19 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Week</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Forecast</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>yhat</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
       <c r="D1" t="inlineStr">
         <is>
           <t>Amazon Mean Forecast</t>
@@ -460,79 +460,28 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Diff_Mean Forecast</t>
+          <t>Product Title</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Pct_Mean Forecast</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Diff_P70 Forecast</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Pct_P70 Forecast</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Diff_P80 Forecast</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Pct_P80 Forecast</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Diff_P90 Forecast</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Pct_P90 Forecast</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>ASIN</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Product Title</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
           <t>is_holiday_week</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Week</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>125</v>
-      </c>
-      <c r="B2" t="n">
-        <v>125.4009589385441</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>W01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>162.0038846303492</v>
+        <v>234</v>
       </c>
       <c r="D2" t="n">
         <v>142</v>
@@ -546,61 +495,28 @@
       <c r="G2" t="n">
         <v>280</v>
       </c>
-      <c r="H2" t="n">
-        <v>-17</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-11.97183098591549</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-49</v>
-      </c>
-      <c r="K2" t="n">
-        <v>-28.16091954022988</v>
-      </c>
-      <c r="L2" t="n">
-        <v>-89</v>
-      </c>
-      <c r="M2" t="n">
-        <v>-41.58878504672897</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-155</v>
-      </c>
-      <c r="O2" t="n">
-        <v>-55.35714285714286</v>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>B08R5736B3</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>B550M DS3H AC</t>
-        </is>
-      </c>
-      <c r="R2" t="b">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v/>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>W01</t>
-        </is>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>81</v>
-      </c>
-      <c r="B3" t="n">
-        <v>81.11021236368855</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>W02</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>140.881294508341</v>
+        <v>122</v>
       </c>
       <c r="D3" t="n">
         <v>126</v>
@@ -614,61 +530,28 @@
       <c r="G3" t="n">
         <v>264</v>
       </c>
-      <c r="H3" t="n">
-        <v>-45</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-35.71428571428572</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-73</v>
-      </c>
-      <c r="K3" t="n">
-        <v>-47.4025974025974</v>
-      </c>
-      <c r="L3" t="n">
-        <v>-114</v>
-      </c>
-      <c r="M3" t="n">
-        <v>-58.46153846153847</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-183</v>
-      </c>
-      <c r="O3" t="n">
-        <v>-69.31818181818183</v>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>B08R5736B3</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>B550M DS3H AC</t>
-        </is>
-      </c>
-      <c r="R3" t="b">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v/>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>W02</t>
-        </is>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>60</v>
-      </c>
-      <c r="B4" t="n">
-        <v>60.09134321915683</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>W03</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>167.2752194230464</v>
+        <v>93</v>
       </c>
       <c r="D4" t="n">
         <v>109</v>
@@ -682,61 +565,28 @@
       <c r="G4" t="n">
         <v>220</v>
       </c>
-      <c r="H4" t="n">
-        <v>-49</v>
-      </c>
-      <c r="I4" t="n">
-        <v>-44.95412844036697</v>
-      </c>
-      <c r="J4" t="n">
-        <v>-73</v>
-      </c>
-      <c r="K4" t="n">
-        <v>-54.88721804511278</v>
-      </c>
-      <c r="L4" t="n">
-        <v>-107</v>
-      </c>
-      <c r="M4" t="n">
-        <v>-64.07185628742515</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-160</v>
-      </c>
-      <c r="O4" t="n">
-        <v>-72.72727272727273</v>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>B08R5736B3</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>B550M DS3H AC</t>
-        </is>
-      </c>
-      <c r="R4" t="b">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v/>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>W03</t>
-        </is>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>67</v>
-      </c>
-      <c r="B5" t="n">
-        <v>67.37754318351061</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>W04</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>283.2989137239156</v>
+        <v>71</v>
       </c>
       <c r="D5" t="n">
         <v>83</v>
@@ -750,61 +600,28 @@
       <c r="G5" t="n">
         <v>166</v>
       </c>
-      <c r="H5" t="n">
-        <v>-16</v>
-      </c>
-      <c r="I5" t="n">
-        <v>-19.27710843373494</v>
-      </c>
-      <c r="J5" t="n">
-        <v>-35</v>
-      </c>
-      <c r="K5" t="n">
-        <v>-34.31372549019608</v>
-      </c>
-      <c r="L5" t="n">
-        <v>-59</v>
-      </c>
-      <c r="M5" t="n">
-        <v>-46.82539682539682</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-99</v>
-      </c>
-      <c r="O5" t="n">
-        <v>-59.63855421686747</v>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>B08R5736B3</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>B550M DS3H AC</t>
-        </is>
-      </c>
-      <c r="R5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v/>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>W04</t>
-        </is>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>84</v>
-      </c>
-      <c r="B6" t="n">
-        <v>84.32957118444806</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>W05</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>451.5759615222095</v>
+        <v>74</v>
       </c>
       <c r="D6" t="n">
         <v>85</v>
@@ -818,61 +635,28 @@
       <c r="G6" t="n">
         <v>173</v>
       </c>
-      <c r="H6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-1.176470588235294</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-21</v>
-      </c>
-      <c r="K6" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-47</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-35.87786259541985</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-89</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-51.44508670520231</v>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>B08R5736B3</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>B550M DS3H AC</t>
-        </is>
-      </c>
-      <c r="R6" t="b">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v/>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>W05</t>
-        </is>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>92</v>
-      </c>
-      <c r="B7" t="n">
-        <v>92.29704446834425</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>W06</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>655.7250098712044</v>
+        <v>80</v>
       </c>
       <c r="D7" t="n">
         <v>80</v>
@@ -886,61 +670,28 @@
       <c r="G7" t="n">
         <v>163</v>
       </c>
-      <c r="H7" t="n">
-        <v>12</v>
-      </c>
-      <c r="I7" t="n">
-        <v>15</v>
-      </c>
-      <c r="J7" t="n">
-        <v>-6</v>
-      </c>
-      <c r="K7" t="n">
-        <v>-6.122448979591836</v>
-      </c>
-      <c r="L7" t="n">
-        <v>-31</v>
-      </c>
-      <c r="M7" t="n">
-        <v>-25.20325203252033</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-71</v>
-      </c>
-      <c r="O7" t="n">
-        <v>-43.55828220858896</v>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>B08R5736B3</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>B550M DS3H AC</t>
-        </is>
-      </c>
-      <c r="R7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v/>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>W06</t>
-        </is>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>92</v>
-      </c>
-      <c r="B8" t="n">
-        <v>92.4289823595264</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>W07</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
       </c>
       <c r="C8" t="n">
-        <v>850.9143796835183</v>
+        <v>82</v>
       </c>
       <c r="D8" t="n">
         <v>81</v>
@@ -954,61 +705,28 @@
       <c r="G8" t="n">
         <v>168</v>
       </c>
-      <c r="H8" t="n">
-        <v>11</v>
-      </c>
-      <c r="I8" t="n">
-        <v>13.58024691358025</v>
-      </c>
-      <c r="J8" t="n">
-        <v>-7</v>
-      </c>
-      <c r="K8" t="n">
-        <v>-7.07070707070707</v>
-      </c>
-      <c r="L8" t="n">
-        <v>-33</v>
-      </c>
-      <c r="M8" t="n">
-        <v>-26.4</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-76</v>
-      </c>
-      <c r="O8" t="n">
-        <v>-45.23809523809524</v>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>B08R5736B3</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>B550M DS3H AC</t>
-        </is>
-      </c>
-      <c r="R8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v/>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>W07</t>
-        </is>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>100</v>
-      </c>
-      <c r="B9" t="n">
-        <v>99.57449543814245</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>W08</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
       </c>
       <c r="C9" t="n">
-        <v>1168.370623246122</v>
+        <v>67</v>
       </c>
       <c r="D9" t="n">
         <v>78</v>
@@ -1022,61 +740,28 @@
       <c r="G9" t="n">
         <v>163</v>
       </c>
-      <c r="H9" t="n">
-        <v>22</v>
-      </c>
-      <c r="I9" t="n">
-        <v>28.2051282051282</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.166666666666666</v>
-      </c>
-      <c r="L9" t="n">
-        <v>-21</v>
-      </c>
-      <c r="M9" t="n">
-        <v>-17.35537190082645</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-63</v>
-      </c>
-      <c r="O9" t="n">
-        <v>-38.65030674846626</v>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>B08R5736B3</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>B550M DS3H AC</t>
-        </is>
-      </c>
-      <c r="R9" t="b">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v/>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>W08</t>
-        </is>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>119</v>
-      </c>
-      <c r="B10" t="n">
-        <v>119.3844699057373</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>W09</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
       </c>
       <c r="C10" t="n">
-        <v>1737.961950816776</v>
+        <v>66</v>
       </c>
       <c r="D10" t="n">
         <v>77</v>
@@ -1090,61 +775,28 @@
       <c r="G10" t="n">
         <v>156</v>
       </c>
-      <c r="H10" t="n">
-        <v>42</v>
-      </c>
-      <c r="I10" t="n">
-        <v>54.54545454545454</v>
-      </c>
-      <c r="J10" t="n">
-        <v>25</v>
-      </c>
-      <c r="K10" t="n">
-        <v>26.59574468085106</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.70940170940171</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-37</v>
-      </c>
-      <c r="O10" t="n">
-        <v>-23.71794871794872</v>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>B08R5736B3</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>B550M DS3H AC</t>
-        </is>
-      </c>
-      <c r="R10" t="b">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v/>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>W09</t>
-        </is>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>137</v>
-      </c>
-      <c r="B11" t="n">
-        <v>137.4805419075809</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
       </c>
       <c r="C11" t="n">
-        <v>2414.333543455183</v>
+        <v>108</v>
       </c>
       <c r="D11" t="n">
         <v>75</v>
@@ -1158,61 +810,28 @@
       <c r="G11" t="n">
         <v>156</v>
       </c>
-      <c r="H11" t="n">
-        <v>62</v>
-      </c>
-      <c r="I11" t="n">
-        <v>82.66666666666667</v>
-      </c>
-      <c r="J11" t="n">
-        <v>46</v>
-      </c>
-      <c r="K11" t="n">
-        <v>50.54945054945055</v>
-      </c>
-      <c r="L11" t="n">
-        <v>21</v>
-      </c>
-      <c r="M11" t="n">
-        <v>18.10344827586207</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-19</v>
-      </c>
-      <c r="O11" t="n">
-        <v>-12.17948717948718</v>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>B08R5736B3</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>B550M DS3H AC</t>
-        </is>
-      </c>
-      <c r="R11" t="b">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v/>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>W10</t>
-        </is>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>134</v>
-      </c>
-      <c r="B12" t="n">
-        <v>134.3278658485393</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
       </c>
       <c r="C12" t="n">
-        <v>2827.403075201789</v>
+        <v>172</v>
       </c>
       <c r="D12" t="n">
         <v>71</v>
@@ -1226,61 +845,28 @@
       <c r="G12" t="n">
         <v>157</v>
       </c>
-      <c r="H12" t="n">
-        <v>63</v>
-      </c>
-      <c r="I12" t="n">
-        <v>88.73239436619718</v>
-      </c>
-      <c r="J12" t="n">
-        <v>47</v>
-      </c>
-      <c r="K12" t="n">
-        <v>54.02298850574713</v>
-      </c>
-      <c r="L12" t="n">
-        <v>21</v>
-      </c>
-      <c r="M12" t="n">
-        <v>18.58407079646018</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-23</v>
-      </c>
-      <c r="O12" t="n">
-        <v>-14.64968152866242</v>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>B08R5736B3</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>B550M DS3H AC</t>
-        </is>
-      </c>
-      <c r="R12" t="b">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v/>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>W11</t>
-        </is>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>108</v>
-      </c>
-      <c r="B13" t="n">
-        <v>108.0848328935921</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
       </c>
       <c r="C13" t="n">
-        <v>2725.375526189523</v>
+        <v>208</v>
       </c>
       <c r="D13" t="n">
         <v>74</v>
@@ -1294,61 +880,28 @@
       <c r="G13" t="n">
         <v>160</v>
       </c>
-      <c r="H13" t="n">
-        <v>34</v>
-      </c>
-      <c r="I13" t="n">
-        <v>45.94594594594595</v>
-      </c>
-      <c r="J13" t="n">
-        <v>17</v>
-      </c>
-      <c r="K13" t="n">
-        <v>18.68131868131868</v>
-      </c>
-      <c r="L13" t="n">
-        <v>-9</v>
-      </c>
-      <c r="M13" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-52</v>
-      </c>
-      <c r="O13" t="n">
-        <v>-32.5</v>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>B08R5736B3</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>B550M DS3H AC</t>
-        </is>
-      </c>
-      <c r="R13" t="b">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v/>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>W12</t>
-        </is>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>78</v>
-      </c>
-      <c r="B14" t="n">
-        <v>78.14052036688467</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
       </c>
       <c r="C14" t="n">
-        <v>2264.536063283649</v>
+        <v>204</v>
       </c>
       <c r="D14" t="n">
         <v>75</v>
@@ -1362,61 +915,28 @@
       <c r="G14" t="n">
         <v>161</v>
       </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4</v>
-      </c>
-      <c r="J14" t="n">
-        <v>-14</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-15.21739130434783</v>
-      </c>
-      <c r="L14" t="n">
-        <v>-40</v>
-      </c>
-      <c r="M14" t="n">
-        <v>-33.89830508474576</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-83</v>
-      </c>
-      <c r="O14" t="n">
-        <v>-51.5527950310559</v>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>B08R5736B3</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>B550M DS3H AC</t>
-        </is>
-      </c>
-      <c r="R14" t="b">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v/>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>W13</t>
-        </is>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>65</v>
-      </c>
-      <c r="B15" t="n">
-        <v>65.10222240540055</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
       </c>
       <c r="C15" t="n">
-        <v>2205.483295158778</v>
+        <v>180</v>
       </c>
       <c r="D15" t="n">
         <v>66</v>
@@ -1430,61 +950,28 @@
       <c r="G15" t="n">
         <v>148</v>
       </c>
-      <c r="H15" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>-1.515151515151515</v>
-      </c>
-      <c r="J15" t="n">
-        <v>-16</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-19.75308641975309</v>
-      </c>
-      <c r="L15" t="n">
-        <v>-41</v>
-      </c>
-      <c r="M15" t="n">
-        <v>-38.67924528301887</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-83</v>
-      </c>
-      <c r="O15" t="n">
-        <v>-56.08108108108109</v>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>B08R5736B3</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>B550M DS3H AC</t>
-        </is>
-      </c>
-      <c r="R15" t="b">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v/>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>W14</t>
-        </is>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>70</v>
-      </c>
-      <c r="B16" t="n">
-        <v>70.23429764037088</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
       </c>
       <c r="C16" t="n">
-        <v>2776.234960491771</v>
+        <v>172</v>
       </c>
       <c r="D16" t="n">
         <v>68</v>
@@ -1498,61 +985,28 @@
       <c r="G16" t="n">
         <v>149</v>
       </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.941176470588235</v>
-      </c>
-      <c r="J16" t="n">
-        <v>-13</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-15.66265060240964</v>
-      </c>
-      <c r="L16" t="n">
-        <v>-38</v>
-      </c>
-      <c r="M16" t="n">
-        <v>-35.18518518518518</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-79</v>
-      </c>
-      <c r="O16" t="n">
-        <v>-53.02013422818792</v>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>B08R5736B3</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>B550M DS3H AC</t>
-        </is>
-      </c>
-      <c r="R16" t="b">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v/>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>W15</t>
-        </is>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>77</v>
-      </c>
-      <c r="B17" t="n">
-        <v>76.72699950644093</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>W16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
       </c>
       <c r="C17" t="n">
-        <v>3501.893227750297</v>
+        <v>180</v>
       </c>
       <c r="D17" t="n">
         <v>63</v>
@@ -1566,50 +1020,13 @@
       <c r="G17" t="n">
         <v>140</v>
       </c>
-      <c r="H17" t="n">
-        <v>14</v>
-      </c>
-      <c r="I17" t="n">
-        <v>22.22222222222222</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>-24</v>
-      </c>
-      <c r="M17" t="n">
-        <v>-23.76237623762376</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-63</v>
-      </c>
-      <c r="O17" t="n">
-        <v>-45</v>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>B08R5736B3</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>B550M DS3H AC</t>
-        </is>
-      </c>
-      <c r="R17" t="b">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v/>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>W16</t>
-        </is>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1735,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1489</t>
+          <t>2113</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>823</t>
         </is>
       </c>
     </row>
@@ -1759,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>520</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>234</t>
         </is>
       </c>
     </row>
@@ -1783,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2024-12-08</t>
         </is>
       </c>
     </row>
@@ -1795,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>66</t>
         </is>
       </c>
     </row>
@@ -1807,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08R5736B3.xlsx
+++ b/Sufficient data/forecast_summary_B08R5736B3.xlsx
@@ -435,7 +435,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Forecast</t>
+          <t>Prophet Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -481,19 +481,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="D2" t="n">
-        <v>142</v>
+        <v>319</v>
       </c>
       <c r="E2" t="n">
-        <v>174</v>
+        <v>386</v>
       </c>
       <c r="F2" t="n">
-        <v>214</v>
+        <v>460</v>
       </c>
       <c r="G2" t="n">
-        <v>280</v>
+        <v>577</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>122</v>
+        <v>231</v>
       </c>
       <c r="D3" t="n">
-        <v>126</v>
+        <v>279</v>
       </c>
       <c r="E3" t="n">
-        <v>154</v>
+        <v>341</v>
       </c>
       <c r="F3" t="n">
-        <v>195</v>
+        <v>420</v>
       </c>
       <c r="G3" t="n">
-        <v>264</v>
+        <v>546</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -551,19 +551,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>93</v>
+        <v>155.5</v>
       </c>
       <c r="D4" t="n">
-        <v>109</v>
+        <v>269</v>
       </c>
       <c r="E4" t="n">
-        <v>133</v>
+        <v>329</v>
       </c>
       <c r="F4" t="n">
-        <v>167</v>
+        <v>412</v>
       </c>
       <c r="G4" t="n">
-        <v>220</v>
+        <v>548</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -586,19 +586,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="D5" t="n">
-        <v>83</v>
+        <v>212</v>
       </c>
       <c r="E5" t="n">
-        <v>102</v>
+        <v>260</v>
       </c>
       <c r="F5" t="n">
-        <v>126</v>
+        <v>326</v>
       </c>
       <c r="G5" t="n">
-        <v>166</v>
+        <v>436</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>74</v>
+        <v>92.5</v>
       </c>
       <c r="D6" t="n">
-        <v>85</v>
+        <v>172</v>
       </c>
       <c r="E6" t="n">
-        <v>105</v>
+        <v>211</v>
       </c>
       <c r="F6" t="n">
-        <v>131</v>
+        <v>265</v>
       </c>
       <c r="G6" t="n">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>80</v>
+        <v>124.5</v>
       </c>
       <c r="D7" t="n">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="E7" t="n">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="F7" t="n">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="G7" t="n">
-        <v>163</v>
+        <v>216</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>82</v>
+        <v>126.5</v>
       </c>
       <c r="D8" t="n">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="E8" t="n">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="F8" t="n">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="G8" t="n">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -726,19 +726,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>67</v>
+        <v>145.5</v>
       </c>
       <c r="D9" t="n">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="E9" t="n">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="F9" t="n">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="G9" t="n">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -761,19 +761,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="D10" t="n">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="E10" t="n">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="F10" t="n">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="G10" t="n">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -796,19 +796,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>108</v>
+        <v>132.5</v>
       </c>
       <c r="D11" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="E11" t="n">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="F11" t="n">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="G11" t="n">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -831,19 +831,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>172</v>
+        <v>142.5</v>
       </c>
       <c r="D12" t="n">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="E12" t="n">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="F12" t="n">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="G12" t="n">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -866,19 +866,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>208</v>
+        <v>188.5</v>
       </c>
       <c r="D13" t="n">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="E13" t="n">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="F13" t="n">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="G13" t="n">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -901,19 +901,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="D14" t="n">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E14" t="n">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="F14" t="n">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="G14" t="n">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -936,19 +936,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>180</v>
+        <v>205.5</v>
       </c>
       <c r="D15" t="n">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="E15" t="n">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="F15" t="n">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="G15" t="n">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D16" t="n">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="E16" t="n">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="F16" t="n">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="G16" t="n">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1006,19 +1006,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="D17" t="n">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="E17" t="n">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="F17" t="n">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="G17" t="n">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2024-12-01</t>
+          <t>2022-12-25 to 2024-11-24</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>409</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>158</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>135</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>15798 units</t>
+          <t>15780 units</t>
         </is>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2113</t>
+          <t>2580</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>823</t>
+          <t>1238</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>748</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>267</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-08</t>
+          <t>2024-12-01</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>92</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2024-12-29</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08R5736B3.xlsx
+++ b/Sufficient data/forecast_summary_B08R5736B3.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>267</v>
+        <v>210.9</v>
       </c>
       <c r="D2" t="n">
         <v>319</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>231</v>
+        <v>177.3</v>
       </c>
       <c r="D3" t="n">
         <v>279</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>155.5</v>
+        <v>115.8</v>
       </c>
       <c r="D4" t="n">
         <v>269</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>95</v>
+        <v>75.2</v>
       </c>
       <c r="D5" t="n">
         <v>212</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>92.5</v>
+        <v>50.1</v>
       </c>
       <c r="D6" t="n">
         <v>172</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>124.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D7" t="n">
         <v>114</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>126.5</v>
+        <v>82.2</v>
       </c>
       <c r="D8" t="n">
         <v>113</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>145.5</v>
+        <v>81.8</v>
       </c>
       <c r="D9" t="n">
         <v>102</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>116</v>
+        <v>67.3</v>
       </c>
       <c r="D10" t="n">
         <v>99</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>132.5</v>
+        <v>92.80000000000001</v>
       </c>
       <c r="D11" t="n">
         <v>100</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>142.5</v>
+        <v>108.8</v>
       </c>
       <c r="D12" t="n">
         <v>98</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>188.5</v>
+        <v>146.7</v>
       </c>
       <c r="D13" t="n">
         <v>95</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>190</v>
+        <v>152.1</v>
       </c>
       <c r="D14" t="n">
         <v>92</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>205.5</v>
+        <v>147.1</v>
       </c>
       <c r="D15" t="n">
         <v>86</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>178</v>
+        <v>132.7</v>
       </c>
       <c r="D16" t="n">
         <v>88</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>189</v>
+        <v>125.8</v>
       </c>
       <c r="D17" t="n">
         <v>86</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2580</t>
+          <t>1834</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1238</t>
+          <t>861</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>748</t>
+          <t>579</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>211</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>50</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08R5736B3.xlsx
+++ b/Sufficient data/forecast_summary_B08R5736B3.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>210.9</v>
+        <v>212.4</v>
       </c>
       <c r="D2" t="n">
         <v>319</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>177.3</v>
+        <v>178.3</v>
       </c>
       <c r="D3" t="n">
         <v>279</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>115.8</v>
+        <v>115.3</v>
       </c>
       <c r="D4" t="n">
         <v>269</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>75.2</v>
+        <v>74.7</v>
       </c>
       <c r="D5" t="n">
         <v>212</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>67.59999999999999</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D7" t="n">
         <v>114</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>82.2</v>
+        <v>82.7</v>
       </c>
       <c r="D8" t="n">
         <v>113</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>81.8</v>
+        <v>81.3</v>
       </c>
       <c r="D9" t="n">
         <v>102</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>67.3</v>
+        <v>66.3</v>
       </c>
       <c r="D10" t="n">
         <v>99</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>92.80000000000001</v>
+        <v>94.80000000000001</v>
       </c>
       <c r="D11" t="n">
         <v>100</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>146.7</v>
+        <v>146.2</v>
       </c>
       <c r="D13" t="n">
         <v>95</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>152.1</v>
+        <v>151.6</v>
       </c>
       <c r="D14" t="n">
         <v>92</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>147.1</v>
+        <v>146.6</v>
       </c>
       <c r="D15" t="n">
         <v>86</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>132.7</v>
+        <v>133.2</v>
       </c>
       <c r="D16" t="n">
         <v>88</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>125.8</v>
+        <v>126.8</v>
       </c>
       <c r="D17" t="n">
         <v>86</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1834</t>
+          <t>1836</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>581</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>212</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08R5736B3.xlsx
+++ b/Sufficient data/forecast_summary_B08R5736B3.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>212.4</v>
+        <v>307.6</v>
       </c>
       <c r="D2" t="n">
         <v>319</v>
@@ -500,8 +500,8 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="I2" t="n">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>178.3</v>
+        <v>262</v>
       </c>
       <c r="D3" t="n">
         <v>279</v>
@@ -535,8 +535,8 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="I3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>115.3</v>
+        <v>195.5</v>
       </c>
       <c r="D4" t="n">
         <v>269</v>
@@ -570,8 +570,8 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="I4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>74.7</v>
+        <v>139.8</v>
       </c>
       <c r="D5" t="n">
         <v>212</v>
@@ -605,8 +605,8 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="I5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>50.1</v>
+        <v>103.2</v>
       </c>
       <c r="D6" t="n">
         <v>172</v>
@@ -640,8 +640,8 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="I6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>66.59999999999999</v>
+        <v>101.3</v>
       </c>
       <c r="D7" t="n">
         <v>114</v>
@@ -675,8 +675,8 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="I7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>82.7</v>
+        <v>116.1</v>
       </c>
       <c r="D8" t="n">
         <v>113</v>
@@ -710,8 +710,8 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="I8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>81.3</v>
+        <v>112.9</v>
       </c>
       <c r="D9" t="n">
         <v>102</v>
@@ -745,8 +745,8 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="I9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>66.3</v>
+        <v>97</v>
       </c>
       <c r="D10" t="n">
         <v>99</v>
@@ -780,8 +780,8 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="I10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>94.80000000000001</v>
+        <v>122.8</v>
       </c>
       <c r="D11" t="n">
         <v>100</v>
@@ -815,8 +815,8 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="I11" t="n">
+        <v/>
       </c>
     </row>
     <row r="12">
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>108.8</v>
+        <v>138.7</v>
       </c>
       <c r="D12" t="n">
         <v>98</v>
@@ -850,8 +850,8 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="I12" t="n">
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>146.2</v>
+        <v>173.7</v>
       </c>
       <c r="D13" t="n">
         <v>95</v>
@@ -885,8 +885,8 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="I13" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>151.6</v>
+        <v>178.2</v>
       </c>
       <c r="D14" t="n">
         <v>92</v>
@@ -920,8 +920,8 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="I14" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>146.6</v>
+        <v>173.4</v>
       </c>
       <c r="D15" t="n">
         <v>86</v>
@@ -955,8 +955,8 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="I15" t="n">
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>133.2</v>
+        <v>158.6</v>
       </c>
       <c r="D16" t="n">
         <v>88</v>
@@ -990,8 +990,8 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="I16" t="n">
+        <v/>
       </c>
     </row>
     <row r="17">
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>126.8</v>
+        <v>152.6</v>
       </c>
       <c r="D17" t="n">
         <v>86</v>
@@ -1025,8 +1025,8 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="I17" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1836</t>
+          <t>2533</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>861</t>
+          <t>1338</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>905</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>308</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>97</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-12-29</t>
+          <t>2025-01-26</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08R5736B3.xlsx
+++ b/Sufficient data/forecast_summary_B08R5736B3.xlsx
@@ -475,13 +475,11 @@
           <t>W01</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>B08R5736B3</t>
-        </is>
+      <c r="B2" t="n">
+        <v/>
       </c>
       <c r="C2" t="n">
-        <v>307.6</v>
+        <v>305.35</v>
       </c>
       <c r="D2" t="n">
         <v>319</v>
@@ -495,10 +493,8 @@
       <c r="G2" t="n">
         <v>577</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>B550M DS3H AC</t>
-        </is>
+      <c r="H2" t="n">
+        <v/>
       </c>
       <c r="I2" t="n">
         <v/>
@@ -510,13 +506,11 @@
           <t>W02</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>B08R5736B3</t>
-        </is>
+      <c r="B3" t="n">
+        <v/>
       </c>
       <c r="C3" t="n">
-        <v>262</v>
+        <v>278.25</v>
       </c>
       <c r="D3" t="n">
         <v>279</v>
@@ -530,10 +524,8 @@
       <c r="G3" t="n">
         <v>546</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>B550M DS3H AC</t>
-        </is>
+      <c r="H3" t="n">
+        <v/>
       </c>
       <c r="I3" t="n">
         <v/>
@@ -545,13 +537,11 @@
           <t>W03</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>B08R5736B3</t>
-        </is>
+      <c r="B4" t="n">
+        <v/>
       </c>
       <c r="C4" t="n">
-        <v>195.5</v>
+        <v>263.15</v>
       </c>
       <c r="D4" t="n">
         <v>269</v>
@@ -565,10 +555,8 @@
       <c r="G4" t="n">
         <v>548</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>B550M DS3H AC</t>
-        </is>
+      <c r="H4" t="n">
+        <v/>
       </c>
       <c r="I4" t="n">
         <v/>
@@ -580,13 +568,11 @@
           <t>W04</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>B08R5736B3</t>
-        </is>
+      <c r="B5" t="n">
+        <v/>
       </c>
       <c r="C5" t="n">
-        <v>139.8</v>
+        <v>218.3</v>
       </c>
       <c r="D5" t="n">
         <v>212</v>
@@ -600,10 +586,8 @@
       <c r="G5" t="n">
         <v>436</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>B550M DS3H AC</t>
-        </is>
+      <c r="H5" t="n">
+        <v/>
       </c>
       <c r="I5" t="n">
         <v/>
@@ -615,13 +599,11 @@
           <t>W05</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>B08R5736B3</t>
-        </is>
+      <c r="B6" t="n">
+        <v/>
       </c>
       <c r="C6" t="n">
-        <v>103.2</v>
+        <v>171.75</v>
       </c>
       <c r="D6" t="n">
         <v>172</v>
@@ -635,10 +617,8 @@
       <c r="G6" t="n">
         <v>354</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>B550M DS3H AC</t>
-        </is>
+      <c r="H6" t="n">
+        <v/>
       </c>
       <c r="I6" t="n">
         <v/>
@@ -650,13 +630,11 @@
           <t>W06</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>B08R5736B3</t>
-        </is>
+      <c r="B7" t="n">
+        <v/>
       </c>
       <c r="C7" t="n">
-        <v>101.3</v>
+        <v>121.05</v>
       </c>
       <c r="D7" t="n">
         <v>114</v>
@@ -670,10 +648,8 @@
       <c r="G7" t="n">
         <v>216</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>B550M DS3H AC</t>
-        </is>
+      <c r="H7" t="n">
+        <v/>
       </c>
       <c r="I7" t="n">
         <v/>
@@ -685,13 +661,11 @@
           <t>W07</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>B08R5736B3</t>
-        </is>
+      <c r="B8" t="n">
+        <v/>
       </c>
       <c r="C8" t="n">
-        <v>116.1</v>
+        <v>117</v>
       </c>
       <c r="D8" t="n">
         <v>113</v>
@@ -705,10 +679,8 @@
       <c r="G8" t="n">
         <v>225</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>B550M DS3H AC</t>
-        </is>
+      <c r="H8" t="n">
+        <v/>
       </c>
       <c r="I8" t="n">
         <v/>
@@ -720,13 +692,11 @@
           <t>W08</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>B08R5736B3</t>
-        </is>
+      <c r="B9" t="n">
+        <v/>
       </c>
       <c r="C9" t="n">
-        <v>112.9</v>
+        <v>89.39999999999999</v>
       </c>
       <c r="D9" t="n">
         <v>102</v>
@@ -740,10 +710,8 @@
       <c r="G9" t="n">
         <v>196</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>B550M DS3H AC</t>
-        </is>
+      <c r="H9" t="n">
+        <v/>
       </c>
       <c r="I9" t="n">
         <v/>
@@ -755,13 +723,11 @@
           <t>W09</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>B08R5736B3</t>
-        </is>
+      <c r="B10" t="n">
+        <v/>
       </c>
       <c r="C10" t="n">
-        <v>97</v>
+        <v>99.65000000000001</v>
       </c>
       <c r="D10" t="n">
         <v>99</v>
@@ -775,10 +741,8 @@
       <c r="G10" t="n">
         <v>192</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>B550M DS3H AC</t>
-        </is>
+      <c r="H10" t="n">
+        <v/>
       </c>
       <c r="I10" t="n">
         <v/>
@@ -790,13 +754,11 @@
           <t>W10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>B08R5736B3</t>
-        </is>
+      <c r="B11" t="n">
+        <v/>
       </c>
       <c r="C11" t="n">
-        <v>122.8</v>
+        <v>106.8</v>
       </c>
       <c r="D11" t="n">
         <v>100</v>
@@ -810,10 +772,8 @@
       <c r="G11" t="n">
         <v>193</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>B550M DS3H AC</t>
-        </is>
+      <c r="H11" t="n">
+        <v/>
       </c>
       <c r="I11" t="n">
         <v/>
@@ -825,13 +785,11 @@
           <t>W11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>B08R5736B3</t>
-        </is>
+      <c r="B12" t="n">
+        <v/>
       </c>
       <c r="C12" t="n">
-        <v>138.7</v>
+        <v>108.7</v>
       </c>
       <c r="D12" t="n">
         <v>98</v>
@@ -845,10 +803,8 @@
       <c r="G12" t="n">
         <v>194</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>B550M DS3H AC</t>
-        </is>
+      <c r="H12" t="n">
+        <v/>
       </c>
       <c r="I12" t="n">
         <v/>
@@ -860,13 +816,11 @@
           <t>W12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>B08R5736B3</t>
-        </is>
+      <c r="B13" t="n">
+        <v/>
       </c>
       <c r="C13" t="n">
-        <v>173.7</v>
+        <v>118.8</v>
       </c>
       <c r="D13" t="n">
         <v>95</v>
@@ -880,10 +834,8 @@
       <c r="G13" t="n">
         <v>192</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>B550M DS3H AC</t>
-        </is>
+      <c r="H13" t="n">
+        <v/>
       </c>
       <c r="I13" t="n">
         <v/>
@@ -895,13 +847,11 @@
           <t>W13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>B08R5736B3</t>
-        </is>
+      <c r="B14" t="n">
+        <v/>
       </c>
       <c r="C14" t="n">
-        <v>178.2</v>
+        <v>103.6</v>
       </c>
       <c r="D14" t="n">
         <v>92</v>
@@ -915,10 +865,8 @@
       <c r="G14" t="n">
         <v>179</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>B550M DS3H AC</t>
-        </is>
+      <c r="H14" t="n">
+        <v/>
       </c>
       <c r="I14" t="n">
         <v/>
@@ -930,13 +878,11 @@
           <t>W14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>B08R5736B3</t>
-        </is>
+      <c r="B15" t="n">
+        <v/>
       </c>
       <c r="C15" t="n">
-        <v>173.4</v>
+        <v>97.55</v>
       </c>
       <c r="D15" t="n">
         <v>86</v>
@@ -950,10 +896,8 @@
       <c r="G15" t="n">
         <v>173</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>B550M DS3H AC</t>
-        </is>
+      <c r="H15" t="n">
+        <v/>
       </c>
       <c r="I15" t="n">
         <v/>
@@ -965,13 +909,11 @@
           <t>W15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>B08R5736B3</t>
-        </is>
+      <c r="B16" t="n">
+        <v/>
       </c>
       <c r="C16" t="n">
-        <v>158.6</v>
+        <v>95.75</v>
       </c>
       <c r="D16" t="n">
         <v>88</v>
@@ -985,10 +927,8 @@
       <c r="G16" t="n">
         <v>175</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>B550M DS3H AC</t>
-        </is>
+      <c r="H16" t="n">
+        <v/>
       </c>
       <c r="I16" t="n">
         <v/>
@@ -1000,13 +940,11 @@
           <t>W16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>B08R5736B3</t>
-        </is>
+      <c r="B17" t="n">
+        <v/>
       </c>
       <c r="C17" t="n">
-        <v>152.6</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D17" t="n">
         <v>86</v>
@@ -1020,10 +958,8 @@
       <c r="G17" t="n">
         <v>174</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>B550M DS3H AC</t>
-        </is>
+      <c r="H17" t="n">
+        <v/>
       </c>
       <c r="I17" t="n">
         <v/>
@@ -1152,7 +1088,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2533</t>
+          <t>2388</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1100,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1338</t>
+          <t>1564</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1112,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>905</t>
+          <t>1065</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1124,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>305</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1148,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>89</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1160,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-01-19</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08R5736B3.xlsx
+++ b/Sufficient data/forecast_summary_B08R5736B3.xlsx
@@ -475,11 +475,13 @@
           <t>W01</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>305.35</v>
+        <v>308.1</v>
       </c>
       <c r="D2" t="n">
         <v>319</v>
@@ -493,8 +495,10 @@
       <c r="G2" t="n">
         <v>577</v>
       </c>
-      <c r="H2" t="n">
-        <v/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
       </c>
       <c r="I2" t="n">
         <v/>
@@ -506,11 +510,13 @@
           <t>W02</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>278.25</v>
+        <v>262.5</v>
       </c>
       <c r="D3" t="n">
         <v>279</v>
@@ -524,8 +530,10 @@
       <c r="G3" t="n">
         <v>546</v>
       </c>
-      <c r="H3" t="n">
-        <v/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
       </c>
       <c r="I3" t="n">
         <v/>
@@ -537,8 +545,10 @@
           <t>W03</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
       </c>
       <c r="C4" t="n">
         <v>263.15</v>
@@ -555,8 +565,10 @@
       <c r="G4" t="n">
         <v>548</v>
       </c>
-      <c r="H4" t="n">
-        <v/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
       </c>
       <c r="I4" t="n">
         <v/>
@@ -568,8 +580,10 @@
           <t>W04</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>218.3</v>
@@ -586,8 +600,10 @@
       <c r="G5" t="n">
         <v>436</v>
       </c>
-      <c r="H5" t="n">
-        <v/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
       </c>
       <c r="I5" t="n">
         <v/>
@@ -599,8 +615,10 @@
           <t>W05</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
       </c>
       <c r="C6" t="n">
         <v>171.75</v>
@@ -617,8 +635,10 @@
       <c r="G6" t="n">
         <v>354</v>
       </c>
-      <c r="H6" t="n">
-        <v/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
       </c>
       <c r="I6" t="n">
         <v/>
@@ -630,11 +650,13 @@
           <t>W06</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>121.05</v>
+        <v>101.3</v>
       </c>
       <c r="D7" t="n">
         <v>114</v>
@@ -648,8 +670,10 @@
       <c r="G7" t="n">
         <v>216</v>
       </c>
-      <c r="H7" t="n">
-        <v/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
       </c>
       <c r="I7" t="n">
         <v/>
@@ -661,11 +685,13 @@
           <t>W07</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
       </c>
       <c r="C8" t="n">
-        <v>117</v>
+        <v>117.1</v>
       </c>
       <c r="D8" t="n">
         <v>113</v>
@@ -679,8 +705,10 @@
       <c r="G8" t="n">
         <v>225</v>
       </c>
-      <c r="H8" t="n">
-        <v/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
       </c>
       <c r="I8" t="n">
         <v/>
@@ -692,11 +720,13 @@
           <t>W08</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
       </c>
       <c r="C9" t="n">
-        <v>89.39999999999999</v>
+        <v>113.4</v>
       </c>
       <c r="D9" t="n">
         <v>102</v>
@@ -710,8 +740,10 @@
       <c r="G9" t="n">
         <v>196</v>
       </c>
-      <c r="H9" t="n">
-        <v/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
       </c>
       <c r="I9" t="n">
         <v/>
@@ -723,11 +755,13 @@
           <t>W09</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
       </c>
       <c r="C10" t="n">
-        <v>99.65000000000001</v>
+        <v>97</v>
       </c>
       <c r="D10" t="n">
         <v>99</v>
@@ -741,8 +775,10 @@
       <c r="G10" t="n">
         <v>192</v>
       </c>
-      <c r="H10" t="n">
-        <v/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
       </c>
       <c r="I10" t="n">
         <v/>
@@ -754,11 +790,13 @@
           <t>W10</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
       </c>
       <c r="C11" t="n">
-        <v>106.8</v>
+        <v>121.8</v>
       </c>
       <c r="D11" t="n">
         <v>100</v>
@@ -772,8 +810,10 @@
       <c r="G11" t="n">
         <v>193</v>
       </c>
-      <c r="H11" t="n">
-        <v/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
       </c>
       <c r="I11" t="n">
         <v/>
@@ -785,11 +825,13 @@
           <t>W11</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
       </c>
       <c r="C12" t="n">
-        <v>108.7</v>
+        <v>117.9</v>
       </c>
       <c r="D12" t="n">
         <v>98</v>
@@ -803,8 +845,10 @@
       <c r="G12" t="n">
         <v>194</v>
       </c>
-      <c r="H12" t="n">
-        <v/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
       </c>
       <c r="I12" t="n">
         <v/>
@@ -816,8 +860,10 @@
           <t>W12</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
       </c>
       <c r="C13" t="n">
         <v>118.8</v>
@@ -834,8 +880,10 @@
       <c r="G13" t="n">
         <v>192</v>
       </c>
-      <c r="H13" t="n">
-        <v/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
       </c>
       <c r="I13" t="n">
         <v/>
@@ -847,8 +895,10 @@
           <t>W13</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
       </c>
       <c r="C14" t="n">
         <v>103.6</v>
@@ -865,8 +915,10 @@
       <c r="G14" t="n">
         <v>179</v>
       </c>
-      <c r="H14" t="n">
-        <v/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
       </c>
       <c r="I14" t="n">
         <v/>
@@ -878,8 +930,10 @@
           <t>W14</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
       </c>
       <c r="C15" t="n">
         <v>97.55</v>
@@ -896,8 +950,10 @@
       <c r="G15" t="n">
         <v>173</v>
       </c>
-      <c r="H15" t="n">
-        <v/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
       </c>
       <c r="I15" t="n">
         <v/>
@@ -909,8 +965,10 @@
           <t>W15</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
       </c>
       <c r="C16" t="n">
         <v>95.75</v>
@@ -927,8 +985,10 @@
       <c r="G16" t="n">
         <v>175</v>
       </c>
-      <c r="H16" t="n">
-        <v/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
       </c>
       <c r="I16" t="n">
         <v/>
@@ -940,8 +1000,10 @@
           <t>W16</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
       </c>
       <c r="C17" t="n">
         <v>92.90000000000001</v>
@@ -958,8 +1020,10 @@
       <c r="G17" t="n">
         <v>174</v>
       </c>
-      <c r="H17" t="n">
-        <v/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
       </c>
       <c r="I17" t="n">
         <v/>
@@ -1088,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2388</t>
+          <t>2401</t>
         </is>
       </c>
     </row>
@@ -1100,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1564</t>
+          <t>1556</t>
         </is>
       </c>
     </row>
@@ -1112,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1065</t>
+          <t>1052</t>
         </is>
       </c>
     </row>
@@ -1124,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>308</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-03-16</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08R5736B3.xlsx
+++ b/Sufficient data/forecast_summary_B08R5736B3.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>308.1</v>
+        <v>306.6</v>
       </c>
       <c r="D2" t="n">
         <v>319</v>
@@ -500,8 +500,8 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>262.5</v>
+        <v>261</v>
       </c>
       <c r="D3" t="n">
         <v>279</v>
@@ -535,8 +535,8 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -570,8 +570,8 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -605,8 +605,8 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -640,8 +640,8 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -675,8 +675,8 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>117.1</v>
+        <v>116.1</v>
       </c>
       <c r="D8" t="n">
         <v>113</v>
@@ -710,8 +710,8 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>113.4</v>
+        <v>112.9</v>
       </c>
       <c r="D9" t="n">
         <v>102</v>
@@ -745,8 +745,8 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>97</v>
+        <v>98.5</v>
       </c>
       <c r="D10" t="n">
         <v>99</v>
@@ -780,8 +780,8 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>121.8</v>
+        <v>122.8</v>
       </c>
       <c r="D11" t="n">
         <v>100</v>
@@ -815,8 +815,8 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -850,8 +850,8 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -885,8 +885,8 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,8 +920,8 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -955,8 +955,8 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -990,8 +990,8 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1025,8 +1025,8 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2401</t>
+          <t>2399</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1556</t>
+          <t>1551</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1052</t>
+          <t>1049</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>307</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08R5736B3.xlsx
+++ b/Sufficient data/forecast_summary_B08R5736B3.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>306.6</v>
+        <v>307.1</v>
       </c>
       <c r="D2" t="n">
         <v>319</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D3" t="n">
         <v>279</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>263.15</v>
+        <v>198.5</v>
       </c>
       <c r="D4" t="n">
         <v>269</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>101.3</v>
+        <v>101.8</v>
       </c>
       <c r="D7" t="n">
         <v>114</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>116.1</v>
+        <v>115.6</v>
       </c>
       <c r="D8" t="n">
         <v>113</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>112.9</v>
+        <v>113.4</v>
       </c>
       <c r="D9" t="n">
         <v>102</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>98.5</v>
+        <v>98</v>
       </c>
       <c r="D10" t="n">
         <v>99</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>122.8</v>
+        <v>123.8</v>
       </c>
       <c r="D11" t="n">
         <v>100</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>117.9</v>
+        <v>139.2</v>
       </c>
       <c r="D12" t="n">
         <v>98</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2399</t>
+          <t>2358</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1551</t>
+          <t>1488</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1049</t>
+          <t>986</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08R5736B3.xlsx
+++ b/Sufficient data/forecast_summary_B08R5736B3.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>307.1</v>
+        <v>307.6</v>
       </c>
       <c r="D2" t="n">
         <v>319</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D3" t="n">
         <v>279</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>198.5</v>
+        <v>195.5</v>
       </c>
       <c r="D4" t="n">
         <v>269</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>115.6</v>
+        <v>116.6</v>
       </c>
       <c r="D8" t="n">
         <v>113</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>113.4</v>
+        <v>112.4</v>
       </c>
       <c r="D9" t="n">
         <v>102</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>98</v>
+        <v>97.5</v>
       </c>
       <c r="D10" t="n">
         <v>99</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>139.2</v>
+        <v>139.7</v>
       </c>
       <c r="D12" t="n">
         <v>98</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2358</t>
+          <t>2357</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1488</t>
+          <t>1487</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>984</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>308</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08R5736B3.xlsx
+++ b/Sufficient data/forecast_summary_B08R5736B3.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>307.6</v>
+        <v>307.1</v>
       </c>
       <c r="D2" t="n">
         <v>319</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>263</v>
+        <v>260.5</v>
       </c>
       <c r="D3" t="n">
         <v>279</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>195.5</v>
+        <v>196.5</v>
       </c>
       <c r="D4" t="n">
         <v>269</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>101.8</v>
+        <v>100.8</v>
       </c>
       <c r="D7" t="n">
         <v>114</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>116.6</v>
+        <v>115.6</v>
       </c>
       <c r="D8" t="n">
         <v>113</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>112.4</v>
+        <v>113.4</v>
       </c>
       <c r="D9" t="n">
         <v>102</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>97.5</v>
+        <v>96</v>
       </c>
       <c r="D10" t="n">
         <v>99</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>123.8</v>
+        <v>122.8</v>
       </c>
       <c r="D11" t="n">
         <v>100</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>139.7</v>
+        <v>138.2</v>
       </c>
       <c r="D12" t="n">
         <v>98</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2357</t>
+          <t>2350</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1487</t>
+          <t>1484</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>984</t>
+          <t>982</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>307</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08R5736B3.xlsx
+++ b/Sufficient data/forecast_summary_B08R5736B3.xlsx
@@ -435,7 +435,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>MyForecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>307.1</v>
+        <v>306</v>
       </c>
       <c r="D2" t="n">
         <v>319</v>
@@ -500,7 +500,7 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I2" t="b">
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>260.5</v>
+        <v>262</v>
       </c>
       <c r="D3" t="n">
         <v>279</v>
@@ -535,7 +535,7 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I3" t="b">
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>196.5</v>
+        <v>196</v>
       </c>
       <c r="D4" t="n">
         <v>269</v>
@@ -570,7 +570,7 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I4" t="b">
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>218.3</v>
+        <v>218</v>
       </c>
       <c r="D5" t="n">
         <v>212</v>
@@ -605,7 +605,7 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I5" t="b">
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>171.75</v>
+        <v>172</v>
       </c>
       <c r="D6" t="n">
         <v>172</v>
@@ -640,7 +640,7 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I6" t="b">
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>100.8</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
         <v>114</v>
@@ -675,7 +675,7 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I7" t="b">
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>115.6</v>
+        <v>117</v>
       </c>
       <c r="D8" t="n">
         <v>113</v>
@@ -710,7 +710,7 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I8" t="b">
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>113.4</v>
+        <v>112</v>
       </c>
       <c r="D9" t="n">
         <v>102</v>
@@ -745,7 +745,7 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I9" t="b">
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D10" t="n">
         <v>99</v>
@@ -780,7 +780,7 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I10" t="b">
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>122.8</v>
+        <v>122</v>
       </c>
       <c r="D11" t="n">
         <v>100</v>
@@ -815,7 +815,7 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I11" t="b">
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>138.2</v>
+        <v>137</v>
       </c>
       <c r="D12" t="n">
         <v>98</v>
@@ -850,7 +850,7 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I12" t="b">
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>118.8</v>
+        <v>119</v>
       </c>
       <c r="D13" t="n">
         <v>95</v>
@@ -885,7 +885,7 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I13" t="b">
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>103.6</v>
+        <v>104</v>
       </c>
       <c r="D14" t="n">
         <v>92</v>
@@ -920,7 +920,7 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I14" t="b">
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>97.55</v>
+        <v>98</v>
       </c>
       <c r="D15" t="n">
         <v>86</v>
@@ -955,7 +955,7 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I15" t="b">
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>95.75</v>
+        <v>96</v>
       </c>
       <c r="D16" t="n">
         <v>88</v>
@@ -990,7 +990,7 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I16" t="b">
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>92.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="D17" t="n">
         <v>86</v>
@@ -1025,7 +1025,7 @@
           <t>B550M DS3H AC</t>
         </is>
       </c>
-      <c r="I17" t="b">
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>2348</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1484</t>
+          <t>1483</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>306</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08R5736B3.xlsx
+++ b/Sufficient data/forecast_summary_B08R5736B3.xlsx
@@ -481,19 +481,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>306</v>
+        <v>49</v>
       </c>
       <c r="D2" t="n">
-        <v>319</v>
+        <v>68</v>
       </c>
       <c r="E2" t="n">
-        <v>386</v>
+        <v>83</v>
       </c>
       <c r="F2" t="n">
-        <v>460</v>
+        <v>102</v>
       </c>
       <c r="G2" t="n">
-        <v>577</v>
+        <v>132</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>262</v>
+        <v>62</v>
       </c>
       <c r="D3" t="n">
-        <v>279</v>
+        <v>66</v>
       </c>
       <c r="E3" t="n">
-        <v>341</v>
+        <v>81</v>
       </c>
       <c r="F3" t="n">
-        <v>420</v>
+        <v>103</v>
       </c>
       <c r="G3" t="n">
-        <v>546</v>
+        <v>141</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -551,19 +551,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>196</v>
+        <v>66</v>
       </c>
       <c r="D4" t="n">
-        <v>269</v>
+        <v>78</v>
       </c>
       <c r="E4" t="n">
-        <v>329</v>
+        <v>96</v>
       </c>
       <c r="F4" t="n">
-        <v>412</v>
+        <v>120</v>
       </c>
       <c r="G4" t="n">
-        <v>548</v>
+        <v>160</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -586,19 +586,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>218</v>
+        <v>61</v>
       </c>
       <c r="D5" t="n">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="E5" t="n">
-        <v>260</v>
+        <v>101</v>
       </c>
       <c r="F5" t="n">
-        <v>326</v>
+        <v>125</v>
       </c>
       <c r="G5" t="n">
-        <v>436</v>
+        <v>165</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>172</v>
+        <v>60</v>
       </c>
       <c r="D6" t="n">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="E6" t="n">
-        <v>211</v>
+        <v>99</v>
       </c>
       <c r="F6" t="n">
-        <v>265</v>
+        <v>125</v>
       </c>
       <c r="G6" t="n">
-        <v>354</v>
+        <v>168</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="D7" t="n">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="E7" t="n">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="F7" t="n">
+        <v>124</v>
+      </c>
+      <c r="G7" t="n">
         <v>169</v>
-      </c>
-      <c r="G7" t="n">
-        <v>216</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="D8" t="n">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="E8" t="n">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="F8" t="n">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="G8" t="n">
-        <v>225</v>
+        <v>166</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -726,19 +726,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="D9" t="n">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="E9" t="n">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="F9" t="n">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="G9" t="n">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -761,19 +761,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="D10" t="n">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="E10" t="n">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="F10" t="n">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="G10" t="n">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -796,19 +796,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="D11" t="n">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="E11" t="n">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="F11" t="n">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="G11" t="n">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -831,19 +831,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>137</v>
+        <v>62</v>
       </c>
       <c r="D12" t="n">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="E12" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="F12" t="n">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="G12" t="n">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -866,19 +866,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="D13" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="E13" t="n">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="F13" t="n">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="G13" t="n">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -901,19 +901,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="D14" t="n">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="E14" t="n">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="F14" t="n">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="G14" t="n">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -936,19 +936,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="D15" t="n">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="E15" t="n">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="F15" t="n">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="G15" t="n">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="D16" t="n">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="E16" t="n">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="F16" t="n">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="G16" t="n">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1006,19 +1006,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="D17" t="n">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="E17" t="n">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="F17" t="n">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="G17" t="n">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2024-11-24</t>
+          <t>2022-12-25 to 2024-12-29</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>392</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>152</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>129</t>
         </is>
       </c>
     </row>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>105</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>15780 units</t>
+          <t>16006 units</t>
         </is>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2348</t>
+          <t>1001</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1483</t>
+          <t>507</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>982</t>
+          <t>237</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>74</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-02-09</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>49</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-01-05</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08R5736B3.xlsx
+++ b/Sufficient data/forecast_summary_B08R5736B3.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2" t="n">
         <v>68</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D3" t="n">
         <v>66</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" t="n">
         <v>78</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D5" t="n">
         <v>82</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D6" t="n">
         <v>80</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D7" t="n">
         <v>79</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D16" t="n">
         <v>63</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D17" t="n">
         <v>64</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1001</t>
+          <t>987</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>496</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>230</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08R5736B3.xlsx
+++ b/Sufficient data/forecast_summary_B08R5736B3.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" t="n">
         <v>68</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>987</t>
+          <t>986</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>495</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>46</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08R5736B3.xlsx
+++ b/Sufficient data/forecast_summary_B08R5736B3.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,40 +430,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Week_Start_Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>ASIN</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>MyForecast</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Amazon Mean Forecast</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Amazon P70 Forecast</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Amazon P80 Forecast</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Amazon P90 Forecast</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Product Title</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>is_holiday_week</t>
         </is>
@@ -472,315 +477,360 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W01</t>
+          <t>W1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B08R5736B3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>46</v>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
       </c>
       <c r="D2" t="n">
+        <v>47</v>
+      </c>
+      <c r="E2" t="n">
         <v>68</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>83</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>102</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>132</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>B550M DS3H AC</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W02</t>
+          <t>W2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B08R5736B3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>60</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>66</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>81</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>103</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>141</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>B550M DS3H AC</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W03</t>
+          <t>W3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B08R5736B3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>65</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>78</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>96</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>120</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>160</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>B550M DS3H AC</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W04</t>
+          <t>W4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B08R5736B3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>59</v>
+          <t>2025-01-26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
       </c>
       <c r="D5" t="n">
+        <v>58</v>
+      </c>
+      <c r="E5" t="n">
         <v>82</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>101</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>125</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>165</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>B550M DS3H AC</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W05</t>
+          <t>W5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B08R5736B3</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>58</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>80</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>99</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>125</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>168</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>B550M DS3H AC</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W06</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B08R5736B3</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>72</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>79</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>97</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>124</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>169</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>B550M DS3H AC</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
+      </c>
+      <c r="J7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W07</t>
+          <t>W7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B08R5736B3</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>68</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>78</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>95</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>122</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>166</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>B550M DS3H AC</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
+      </c>
+      <c r="J8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W08</t>
+          <t>W8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B08R5736B3</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>68</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>77</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>94</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>122</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>169</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>B550M DS3H AC</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
+      </c>
+      <c r="J9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W09</t>
+          <t>W9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B08R5736B3</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>64</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>73</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>90</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>115</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>157</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>B550M DS3H AC</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -792,30 +842,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B08R5736B3</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>65</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>74</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>90</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>117</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>163</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>B550M DS3H AC</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
+      </c>
+      <c r="J11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -827,30 +882,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B08R5736B3</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>62</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>70</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>85</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>112</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>158</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>B550M DS3H AC</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -862,30 +922,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B08R5736B3</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>62</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>70</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>85</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>111</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>156</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>B550M DS3H AC</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
+      </c>
+      <c r="J13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -897,30 +962,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B08R5736B3</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>61</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>69</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>85</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>110</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>151</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>B550M DS3H AC</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
+      </c>
+      <c r="J14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -932,30 +1002,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B08R5736B3</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>55</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>62</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>76</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>100</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>140</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>B550M DS3H AC</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
+      </c>
+      <c r="J15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -967,30 +1042,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B08R5736B3</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>65</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>63</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>77</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>101</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>141</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>B550M DS3H AC</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1002,30 +1082,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B08R5736B3</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>56</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>64</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>79</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>102</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>142</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>B550M DS3H AC</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
+      </c>
+      <c r="J17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1212,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08R5736B3.xlsx
+++ b/Sufficient data/forecast_summary_B08R5736B3.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" t="n">
         <v>68</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5" t="n">
         <v>82</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>985</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>229</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>46</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08R5736B3.xlsx
+++ b/Sufficient data/forecast_summary_B08R5736B3.xlsx
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" t="n">
         <v>82</v>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>228</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08R5736B3.xlsx
+++ b/Sufficient data/forecast_summary_B08R5736B3.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E2" t="n">
         <v>68</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E3" t="n">
         <v>66</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E4" t="n">
         <v>78</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E5" t="n">
         <v>82</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E6" t="n">
         <v>80</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E7" t="n">
         <v>79</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E16" t="n">
         <v>63</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E17" t="n">
         <v>64</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>985</t>
+          <t>999</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>505</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>235</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>74</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>48</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08R5736B3.xlsx
+++ b/Sufficient data/forecast_summary_B08R5736B3.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="E2" t="n">
         <v>68</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="E3" t="n">
         <v>66</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="E4" t="n">
         <v>78</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="E5" t="n">
         <v>82</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="E6" t="n">
         <v>80</v>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="E7" t="n">
         <v>79</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="E8" t="n">
         <v>78</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="E9" t="n">
         <v>77</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="E10" t="n">
         <v>73</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E11" t="n">
         <v>74</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="E12" t="n">
         <v>70</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="E13" t="n">
         <v>70</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="E14" t="n">
         <v>69</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="E15" t="n">
         <v>62</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E16" t="n">
         <v>63</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E17" t="n">
         <v>64</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2024-12-29</t>
+          <t>2022-12-25 to 2025-01-05</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>393</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>151</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>128</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16006 units</t>
+          <t>16036 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>999</t>
+          <t>1425</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>791</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>388</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>123</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>54</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-04-27</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08R5736B3.xlsx
+++ b/Sufficient data/forecast_summary_B08R5736B3.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,19 +491,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F2" t="n">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G2" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H2" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,19 +531,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="E3" t="n">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F3" t="n">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G3" t="n">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="H3" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,19 +571,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="E4" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F4" t="n">
         <v>96</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H4" t="n">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,19 +611,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="E5" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F5" t="n">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G5" t="n">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="H5" t="n">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,19 +651,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="E6" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F6" t="n">
         <v>99</v>
       </c>
       <c r="G6" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H6" t="n">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="E7" t="n">
         <v>79</v>
@@ -700,10 +700,10 @@
         <v>97</v>
       </c>
       <c r="G7" t="n">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H7" t="n">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,19 +731,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="E8" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F8" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G8" t="n">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="H8" t="n">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,19 +771,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="E9" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F9" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G9" t="n">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H9" t="n">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,19 +811,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E10" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F10" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G10" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H10" t="n">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,19 +851,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E11" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F11" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G11" t="n">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="H11" t="n">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -897,13 +897,13 @@
         <v>70</v>
       </c>
       <c r="F12" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G12" t="n">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H12" t="n">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,19 +931,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="E13" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" t="n">
         <v>85</v>
       </c>
       <c r="G13" t="n">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H13" t="n">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="E14" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F14" t="n">
         <v>85</v>
       </c>
       <c r="G14" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H14" t="n">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,19 +1011,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E15" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F15" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G15" t="n">
         <v>100</v>
       </c>
       <c r="H15" t="n">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E16" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F16" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G16" t="n">
         <v>101</v>
       </c>
       <c r="H16" t="n">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,19 +1091,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E17" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F17" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G17" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H17" t="n">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2025-01-05</t>
+          <t>2022-12-25 to 2025-01-12</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>396</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>150</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>126</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>106</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16036 units</t>
+          <t>16101 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1425</t>
+          <t>1107</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>791</t>
+          <t>597</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>309</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>88</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08R5736B3.xlsx
+++ b/Sufficient data/forecast_summary_B08R5736B3.xlsx
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E5" t="n">
         <v>79</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="E7" t="n">
         <v>79</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="E8" t="n">
         <v>73</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="E9" t="n">
         <v>76</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="E11" t="n">
         <v>71</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1107</t>
+          <t>1183</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>657</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>311</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>89</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08R5736B3.xlsx
+++ b/Sufficient data/forecast_summary_B08R5736B3.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="E2" t="n">
         <v>75</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="E3" t="n">
         <v>77</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="E4" t="n">
         <v>79</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="E5" t="n">
         <v>79</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="E6" t="n">
         <v>81</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="E7" t="n">
         <v>79</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="E8" t="n">
         <v>73</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="E9" t="n">
         <v>76</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="E10" t="n">
         <v>76</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="E11" t="n">
         <v>71</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="E12" t="n">
         <v>70</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="E13" t="n">
         <v>69</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E14" t="n">
         <v>70</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E15" t="n">
         <v>64</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E16" t="n">
         <v>66</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E17" t="n">
         <v>65</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1183</t>
+          <t>1631</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>921</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>429</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>127</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-02-16</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>59</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08R5736B3.xlsx
+++ b/Sufficient data/forecast_summary_B08R5736B3.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E2" t="n">
         <v>75</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E3" t="n">
         <v>77</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E4" t="n">
         <v>79</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E5" t="n">
         <v>79</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E6" t="n">
         <v>81</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E10" t="n">
         <v>76</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E12" t="n">
         <v>70</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E13" t="n">
         <v>69</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E14" t="n">
         <v>70</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E15" t="n">
         <v>64</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E16" t="n">
         <v>66</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E17" t="n">
         <v>65</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1631</t>
+          <t>1597</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>921</t>
+          <t>908</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>419</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>126</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>56</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08R5736B3.xlsx
+++ b/Sufficient data/forecast_summary_B08R5736B3.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E3" t="n">
         <v>77</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E4" t="n">
         <v>79</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E5" t="n">
         <v>79</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E6" t="n">
         <v>81</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E14" t="n">
         <v>70</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E15" t="n">
         <v>64</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1597</t>
+          <t>1589</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>908</t>
+          <t>903</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>415</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08R5736B3.xlsx
+++ b/Sufficient data/forecast_summary_B08R5736B3.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="E2" t="n">
         <v>75</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="E3" t="n">
         <v>77</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="E4" t="n">
         <v>79</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="E5" t="n">
         <v>79</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="E6" t="n">
         <v>81</v>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="E7" t="n">
         <v>79</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="E8" t="n">
         <v>73</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="E9" t="n">
         <v>76</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E10" t="n">
         <v>76</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="E11" t="n">
         <v>71</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="E12" t="n">
         <v>70</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="E13" t="n">
         <v>69</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E14" t="n">
         <v>70</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E15" t="n">
         <v>64</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E16" t="n">
         <v>66</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E17" t="n">
         <v>65</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2025-01-12</t>
+          <t>2022-12-25 to 2025-01-19</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>398</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>149</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>122</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16101 units</t>
+          <t>16131 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1589</t>
+          <t>927</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>903</t>
+          <t>486</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>243</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>62</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08R5736B3.xlsx
+++ b/Sufficient data/forecast_summary_B08R5736B3.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E2" t="n">
         <v>75</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E3" t="n">
         <v>77</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E4" t="n">
         <v>79</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E5" t="n">
         <v>79</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E6" t="n">
         <v>81</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E7" t="n">
         <v>79</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E8" t="n">
         <v>73</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E9" t="n">
         <v>76</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E10" t="n">
         <v>76</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E11" t="n">
         <v>71</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E12" t="n">
         <v>70</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E13" t="n">
         <v>69</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E14" t="n">
         <v>70</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E15" t="n">
         <v>64</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E16" t="n">
         <v>66</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E17" t="n">
         <v>65</v>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>150</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16131 units</t>
+          <t>16181 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>1007</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>526</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>263</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>67</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>56</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08R5736B3.xlsx
+++ b/Sufficient data/forecast_summary_B08R5736B3.xlsx
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1007</t>
+          <t>1006</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B08R5736B3.xlsx
+++ b/Sufficient data/forecast_summary_B08R5736B3.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,19 +491,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F2" t="n">
         <v>90</v>
       </c>
       <c r="G2" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H2" t="n">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,19 +531,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E3" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F3" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G3" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H3" t="n">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E4" t="n">
         <v>79</v>
@@ -580,10 +580,10 @@
         <v>96</v>
       </c>
       <c r="G4" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H4" t="n">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E5" t="n">
         <v>79</v>
@@ -620,10 +620,10 @@
         <v>96</v>
       </c>
       <c r="G5" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H5" t="n">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E6" t="n">
         <v>81</v>
@@ -660,10 +660,10 @@
         <v>99</v>
       </c>
       <c r="G6" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H6" t="n">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E7" t="n">
         <v>79</v>
       </c>
       <c r="F7" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G7" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H7" t="n">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,19 +731,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E8" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F8" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G8" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H8" t="n">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E9" t="n">
         <v>76</v>
@@ -780,10 +780,10 @@
         <v>93</v>
       </c>
       <c r="G9" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H9" t="n">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,19 +811,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E10" t="n">
         <v>76</v>
       </c>
       <c r="F10" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G10" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H10" t="n">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E11" t="n">
         <v>71</v>
@@ -860,10 +860,10 @@
         <v>87</v>
       </c>
       <c r="G11" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H11" t="n">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E12" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F12" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G12" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H12" t="n">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,19 +931,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E13" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F13" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G13" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H13" t="n">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E14" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F14" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G14" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H14" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,19 +1011,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E15" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F15" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G15" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H15" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E16" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F16" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G16" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H16" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,19 +1091,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E17" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F17" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G17" t="n">
         <v>101</v>
       </c>
       <c r="H17" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-12-25 to 2025-01-19</t>
+          <t>2022-12-25 to 2025-01-26</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>149</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>119</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16181 units</t>
+          <t>16227 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1006</t>
+          <t>1047</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>541</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>271</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>68</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-05-18</t>
         </is>
       </c>
     </row>
